--- a/data_output/Excess Mortality/Regions/TOTAL_BG_(65-69)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
+++ b/data_output/Excess Mortality/Regions/TOTAL_BG_(65-69)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z85"/>
+  <dimension ref="A1:Z82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,17 +633,17 @@
         </is>
       </c>
       <c r="W2" t="n">
-        <v>10482</v>
+        <v>10483</v>
       </c>
       <c r="X2" t="n">
-        <v>465.6</v>
+        <v>465.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>50.5</v>
+        <v>50.6</v>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>465.6(±50.5)</t>
+          <t>465.5(±50.6)</t>
         </is>
       </c>
     </row>
@@ -725,17 +725,17 @@
         </is>
       </c>
       <c r="W3" t="n">
-        <v>15017</v>
+        <v>14960</v>
       </c>
       <c r="X3" t="n">
-        <v>159.8</v>
+        <v>160.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>63.9</v>
+        <v>64.2</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>159.8(±63.9)</t>
+          <t>160.4(±64.2)</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
         </is>
       </c>
       <c r="W4" t="n">
-        <v>7035</v>
+        <v>6818</v>
       </c>
       <c r="X4" t="n">
-        <v>324.1</v>
+        <v>334.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>136.5</v>
+        <v>140.8</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>324.1(±136.5)</t>
+          <t>334.4(±140.8)</t>
         </is>
       </c>
     </row>
@@ -909,17 +909,17 @@
         </is>
       </c>
       <c r="W5" t="n">
-        <v>4859</v>
+        <v>4553</v>
       </c>
       <c r="X5" t="n">
-        <v>65.90000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>137.8</v>
+        <v>147.1</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>65.9(±137.8)</t>
+          <t>70.3(±147.1)</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1001,17 @@
         </is>
       </c>
       <c r="W6" t="n">
-        <v>8812</v>
+        <v>8594</v>
       </c>
       <c r="X6" t="n">
-        <v>372.2</v>
+        <v>381.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>106.7</v>
+        <v>109.3</v>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>372.2(±106.7)</t>
+          <t>381.7(±109.3)</t>
         </is>
       </c>
     </row>
@@ -1093,17 +1093,17 @@
         </is>
       </c>
       <c r="W7" t="n">
-        <v>6128</v>
+        <v>6298</v>
       </c>
       <c r="X7" t="n">
-        <v>398.2</v>
+        <v>387.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.8</v>
+        <v>52.4</v>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>398.2(±53.8)</t>
+          <t>387.4(±52.4)</t>
         </is>
       </c>
     </row>
@@ -1185,17 +1185,17 @@
         </is>
       </c>
       <c r="W8" t="n">
-        <v>5160</v>
+        <v>5021</v>
       </c>
       <c r="X8" t="n">
-        <v>368.2</v>
+        <v>378.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>106.6</v>
+        <v>109.6</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>368.2(±106.6)</t>
+          <t>378.4(±109.6)</t>
         </is>
       </c>
     </row>
@@ -1277,17 +1277,17 @@
         </is>
       </c>
       <c r="W9" t="n">
-        <v>4939</v>
+        <v>4752</v>
       </c>
       <c r="X9" t="n">
-        <v>-194.4</v>
+        <v>-202</v>
       </c>
       <c r="Y9" t="n">
-        <v>220.7</v>
+        <v>229.4</v>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>-194.4(±220.7)</t>
+          <t>-202.0(±229.4)</t>
         </is>
       </c>
     </row>
@@ -1369,17 +1369,17 @@
         </is>
       </c>
       <c r="W10" t="n">
-        <v>5224</v>
+        <v>4992</v>
       </c>
       <c r="X10" t="n">
-        <v>425</v>
+        <v>444.7</v>
       </c>
       <c r="Y10" t="n">
-        <v>91.8</v>
+        <v>96.2</v>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>425.0(±91.8)</t>
+          <t>444.7(±96.2)</t>
         </is>
       </c>
     </row>
@@ -1461,17 +1461,17 @@
         </is>
       </c>
       <c r="W11" t="n">
-        <v>8972</v>
+        <v>8831</v>
       </c>
       <c r="X11" t="n">
-        <v>559.5</v>
+        <v>568.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>59.1</v>
+        <v>60</v>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>559.5(±59.1)</t>
+          <t>568.5(±60.0)</t>
         </is>
       </c>
     </row>
@@ -1553,17 +1553,17 @@
         </is>
       </c>
       <c r="W12" t="n">
-        <v>4785</v>
+        <v>4673</v>
       </c>
       <c r="X12" t="n">
-        <v>-25.1</v>
+        <v>-25.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>110.8</v>
+        <v>113.4</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>-25.1(±110.8)</t>
+          <t>-25.7(±113.4)</t>
         </is>
       </c>
     </row>
@@ -1645,17 +1645,17 @@
         </is>
       </c>
       <c r="W13" t="n">
-        <v>9504</v>
+        <v>9089</v>
       </c>
       <c r="X13" t="n">
-        <v>183.1</v>
+        <v>191.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>143.1</v>
+        <v>149.7</v>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>183.1(±143.1)</t>
+          <t>191.4(±149.7)</t>
         </is>
       </c>
     </row>
@@ -1737,17 +1737,17 @@
         </is>
       </c>
       <c r="W14" t="n">
-        <v>23004</v>
+        <v>22301</v>
       </c>
       <c r="X14" t="n">
-        <v>280</v>
+        <v>288.8</v>
       </c>
       <c r="Y14" t="n">
-        <v>48.6</v>
+        <v>50.2</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>280.0(±48.6)</t>
+          <t>288.8(±50.2)</t>
         </is>
       </c>
     </row>
@@ -1829,17 +1829,17 @@
         </is>
       </c>
       <c r="W15" t="n">
-        <v>4294</v>
+        <v>4333</v>
       </c>
       <c r="X15" t="n">
-        <v>144.4</v>
+        <v>143.1</v>
       </c>
       <c r="Y15" t="n">
-        <v>172.3</v>
+        <v>170.8</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>144.4(±172.3)</t>
+          <t>143.1(±170.8)</t>
         </is>
       </c>
     </row>
@@ -1921,17 +1921,17 @@
         </is>
       </c>
       <c r="W16" t="n">
-        <v>8405</v>
+        <v>8139</v>
       </c>
       <c r="X16" t="n">
-        <v>142.8</v>
+        <v>147.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>51.1</v>
+        <v>52.9</v>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>142.8(±51.1)</t>
+          <t>147.4(±52.9)</t>
         </is>
       </c>
     </row>
@@ -2013,17 +2013,17 @@
         </is>
       </c>
       <c r="W17" t="n">
-        <v>6869</v>
+        <v>6635</v>
       </c>
       <c r="X17" t="n">
-        <v>369.8</v>
+        <v>382.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>168.9</v>
+        <v>174.8</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>369.8(±168.9)</t>
+          <t>382.8(±174.8)</t>
         </is>
       </c>
     </row>
@@ -2105,17 +2105,17 @@
         </is>
       </c>
       <c r="W18" t="n">
-        <v>4533</v>
+        <v>4428</v>
       </c>
       <c r="X18" t="n">
-        <v>388.3</v>
+        <v>397.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>161</v>
+        <v>164.8</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>388.3(±161.0)</t>
+          <t>397.5(±164.8)</t>
         </is>
       </c>
     </row>
@@ -2197,17 +2197,17 @@
         </is>
       </c>
       <c r="W19" t="n">
-        <v>6715</v>
+        <v>6463</v>
       </c>
       <c r="X19" t="n">
-        <v>929.3</v>
+        <v>965.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>75.90000000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>929.3(±75.9)</t>
+          <t>965.5(±78.9)</t>
         </is>
       </c>
     </row>
@@ -2289,17 +2289,17 @@
         </is>
       </c>
       <c r="W20" t="n">
-        <v>4889</v>
+        <v>4818</v>
       </c>
       <c r="X20" t="n">
-        <v>392.7</v>
+        <v>398.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>83.90000000000001</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>392.7(±83.9)</t>
+          <t>398.5(±85.1)</t>
         </is>
       </c>
     </row>
@@ -2381,17 +2381,17 @@
         </is>
       </c>
       <c r="W21" t="n">
-        <v>8688</v>
+        <v>8880</v>
       </c>
       <c r="X21" t="n">
-        <v>467.3</v>
+        <v>457.2</v>
       </c>
       <c r="Y21" t="n">
-        <v>69.09999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>467.3(±69.1)</t>
+          <t>457.2(±67.6)</t>
         </is>
       </c>
     </row>
@@ -2403,87 +2403,87 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sofia (stolitsa)</t>
+          <t>Stara Zagora</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>2020</v>
       </c>
       <c r="D22" t="n">
-        <v>594</v>
+        <v>178</v>
       </c>
       <c r="E22" t="n">
-        <v>509</v>
+        <v>148</v>
       </c>
       <c r="F22" t="n">
-        <v>551</v>
+        <v>130</v>
       </c>
       <c r="G22" t="n">
-        <v>518</v>
+        <v>167</v>
       </c>
       <c r="H22" t="n">
-        <v>509</v>
+        <v>168</v>
       </c>
       <c r="I22" t="n">
-        <v>544</v>
+        <v>142</v>
       </c>
       <c r="J22" t="n">
-        <v>532.5999999999999</v>
+        <v>151.8</v>
       </c>
       <c r="K22" t="n">
-        <v>17.8</v>
+        <v>14.7</v>
       </c>
       <c r="L22" t="n">
         <v>1.96</v>
       </c>
       <c r="M22" t="n">
-        <v>15.6</v>
+        <v>12.9</v>
       </c>
       <c r="N22" t="n">
-        <v>516.9999999999999</v>
+        <v>138.8999999999999</v>
       </c>
       <c r="O22" t="n">
-        <v>548.1999999999999</v>
+        <v>164.7</v>
       </c>
       <c r="P22" t="n">
-        <v>61.4</v>
+        <v>26.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.6</v>
+        <v>12.9</v>
       </c>
       <c r="R22" t="n">
-        <v>11.5</v>
+        <v>17.3</v>
       </c>
       <c r="S22" t="n">
-        <v>3.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>532.6 (±15.6)</t>
+          <t>151.8 (±12.9)</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>61.4 (±15.6)</t>
+          <t>26.2 (±12.9)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>11.5% (±3.1%)</t>
+          <t>17.3% (±9.2%)</t>
         </is>
       </c>
       <c r="W22" t="n">
-        <v>43709</v>
+        <v>11695</v>
       </c>
       <c r="X22" t="n">
-        <v>140.5</v>
+        <v>224</v>
       </c>
       <c r="Y22" t="n">
-        <v>35.7</v>
+        <v>110.3</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>140.5(±35.7)</t>
+          <t>224.0(±110.3)</t>
         </is>
       </c>
     </row>
@@ -2495,87 +2495,87 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Stara Zagora</t>
+          <t>Targovishte</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>2020</v>
       </c>
       <c r="D23" t="n">
-        <v>178</v>
+        <v>82</v>
       </c>
       <c r="E23" t="n">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="F23" t="n">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="G23" t="n">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="H23" t="n">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="I23" t="n">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="J23" t="n">
-        <v>151.8</v>
+        <v>58.99999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>14.7</v>
+        <v>6.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.96</v>
       </c>
       <c r="M23" t="n">
-        <v>12.9</v>
+        <v>5.7</v>
       </c>
       <c r="N23" t="n">
-        <v>138.8999999999999</v>
+        <v>53.29999999999999</v>
       </c>
       <c r="O23" t="n">
-        <v>164.7</v>
+        <v>64.69999999999999</v>
       </c>
       <c r="P23" t="n">
-        <v>26.2</v>
+        <v>23</v>
       </c>
       <c r="Q23" t="n">
-        <v>12.9</v>
+        <v>5.7</v>
       </c>
       <c r="R23" t="n">
-        <v>17.3</v>
+        <v>39</v>
       </c>
       <c r="S23" t="n">
-        <v>9.199999999999999</v>
+        <v>12.3</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>151.8 (±12.9)</t>
+          <t>59.0 (±5.7)</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>26.2 (±12.9)</t>
+          <t>23.0 (±5.7)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>17.3% (±9.2%)</t>
+          <t>39.0% (±12.3%)</t>
         </is>
       </c>
       <c r="W23" t="n">
-        <v>12081</v>
+        <v>4161</v>
       </c>
       <c r="X23" t="n">
-        <v>216.9</v>
+        <v>552.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>106.7</v>
+        <v>136.9</v>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>216.9(±106.7)</t>
+          <t>552.8(±136.9)</t>
         </is>
       </c>
     </row>
@@ -2587,87 +2587,87 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Targovishte</t>
+          <t>Varna</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>2020</v>
       </c>
       <c r="D24" t="n">
-        <v>82</v>
+        <v>242</v>
       </c>
       <c r="E24" t="n">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="F24" t="n">
-        <v>63</v>
+        <v>172</v>
       </c>
       <c r="G24" t="n">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="H24" t="n">
-        <v>62</v>
+        <v>201</v>
       </c>
       <c r="I24" t="n">
-        <v>61</v>
+        <v>177</v>
       </c>
       <c r="J24" t="n">
-        <v>58.99999999999999</v>
+        <v>180.2</v>
       </c>
       <c r="K24" t="n">
-        <v>6.5</v>
+        <v>12.4</v>
       </c>
       <c r="L24" t="n">
         <v>1.96</v>
       </c>
       <c r="M24" t="n">
-        <v>5.7</v>
+        <v>10.9</v>
       </c>
       <c r="N24" t="n">
-        <v>53.29999999999999</v>
+        <v>169.3</v>
       </c>
       <c r="O24" t="n">
-        <v>64.69999999999999</v>
+        <v>191.1</v>
       </c>
       <c r="P24" t="n">
-        <v>23</v>
+        <v>61.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.7</v>
+        <v>10.9</v>
       </c>
       <c r="R24" t="n">
-        <v>39</v>
+        <v>34.3</v>
       </c>
       <c r="S24" t="n">
-        <v>12.3</v>
+        <v>7.7</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>59.0 (±5.7)</t>
+          <t>180.2 (±10.9)</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>23.0 (±5.7)</t>
+          <t>61.8 (±10.9)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>39.0% (±12.3%)</t>
+          <t>34.3% (±7.7%)</t>
         </is>
       </c>
       <c r="W24" t="n">
-        <v>4262</v>
+        <v>15855</v>
       </c>
       <c r="X24" t="n">
-        <v>539.7</v>
+        <v>389.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>133.7</v>
+        <v>68.7</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>539.7(±133.7)</t>
+          <t>389.8(±68.7)</t>
         </is>
       </c>
     </row>
@@ -2679,87 +2679,87 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Varna</t>
+          <t>Veliko Tarnovo</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>2020</v>
       </c>
       <c r="D25" t="n">
-        <v>241</v>
+        <v>158</v>
       </c>
       <c r="E25" t="n">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="F25" t="n">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="G25" t="n">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="H25" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="I25" t="n">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="J25" t="n">
-        <v>180.2</v>
+        <v>125.6000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>12.4</v>
+        <v>4.1</v>
       </c>
       <c r="L25" t="n">
         <v>1.96</v>
       </c>
       <c r="M25" t="n">
-        <v>10.9</v>
+        <v>3.6</v>
       </c>
       <c r="N25" t="n">
-        <v>169.3</v>
+        <v>122.0000000000001</v>
       </c>
       <c r="O25" t="n">
-        <v>191.1</v>
+        <v>129.2</v>
       </c>
       <c r="P25" t="n">
-        <v>60.8</v>
+        <v>32.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>10.9</v>
+        <v>3.6</v>
       </c>
       <c r="R25" t="n">
-        <v>33.7</v>
+        <v>25.8</v>
       </c>
       <c r="S25" t="n">
-        <v>7.6</v>
+        <v>3.5</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>180.2 (±10.9)</t>
+          <t>125.6 (±3.6)</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>60.8 (±10.9)</t>
+          <t>32.4 (±3.6)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>33.7% (±7.6%)</t>
+          <t>25.8% (±3.5%)</t>
         </is>
       </c>
       <c r="W25" t="n">
-        <v>16140</v>
+        <v>9036</v>
       </c>
       <c r="X25" t="n">
-        <v>376.7</v>
+        <v>358.6</v>
       </c>
       <c r="Y25" t="n">
-        <v>67.5</v>
+        <v>39.8</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>376.7(±67.5)</t>
+          <t>358.6(±39.8)</t>
         </is>
       </c>
     </row>
@@ -2771,87 +2771,87 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Veliko Tarnovo</t>
+          <t>Vidin</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>2020</v>
       </c>
       <c r="D26" t="n">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="E26" t="n">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="F26" t="n">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="G26" t="n">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="H26" t="n">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="I26" t="n">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="J26" t="n">
-        <v>125.6000000000001</v>
+        <v>61.4</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>10.1</v>
       </c>
       <c r="L26" t="n">
         <v>1.96</v>
       </c>
       <c r="M26" t="n">
-        <v>3.6</v>
+        <v>8.9</v>
       </c>
       <c r="N26" t="n">
-        <v>122.0000000000001</v>
+        <v>52.5</v>
       </c>
       <c r="O26" t="n">
-        <v>129.2</v>
+        <v>70.3</v>
       </c>
       <c r="P26" t="n">
-        <v>32.4</v>
+        <v>11.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.6</v>
+        <v>8.9</v>
       </c>
       <c r="R26" t="n">
-        <v>25.8</v>
+        <v>18.9</v>
       </c>
       <c r="S26" t="n">
-        <v>3.5</v>
+        <v>15.1</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>125.6 (±3.6)</t>
+          <t>61.4 (±8.9)</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>32.4 (±3.6)</t>
+          <t>11.6 (±8.9)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>25.8% (±3.5%)</t>
+          <t>18.9% (±15.1%)</t>
         </is>
       </c>
       <c r="W26" t="n">
-        <v>9259</v>
+        <v>3542</v>
       </c>
       <c r="X26" t="n">
-        <v>349.9</v>
+        <v>327.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>38.9</v>
+        <v>251.3</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>349.9(±38.9)</t>
+          <t>327.5(±251.3)</t>
         </is>
       </c>
     </row>
@@ -2863,87 +2863,87 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Vidin</t>
+          <t>Vratsa</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>2020</v>
       </c>
       <c r="D27" t="n">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="E27" t="n">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="F27" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G27" t="n">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="H27" t="n">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="I27" t="n">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="J27" t="n">
-        <v>61.4</v>
+        <v>94.00000000000003</v>
       </c>
       <c r="K27" t="n">
-        <v>10.1</v>
+        <v>12.7</v>
       </c>
       <c r="L27" t="n">
         <v>1.96</v>
       </c>
       <c r="M27" t="n">
-        <v>8.9</v>
+        <v>11.1</v>
       </c>
       <c r="N27" t="n">
-        <v>52.5</v>
+        <v>82.90000000000003</v>
       </c>
       <c r="O27" t="n">
-        <v>70.3</v>
+        <v>105.1</v>
       </c>
       <c r="P27" t="n">
-        <v>11.6</v>
+        <v>15</v>
       </c>
       <c r="Q27" t="n">
-        <v>8.9</v>
+        <v>11.1</v>
       </c>
       <c r="R27" t="n">
-        <v>18.9</v>
+        <v>16</v>
       </c>
       <c r="S27" t="n">
-        <v>15.1</v>
+        <v>12.3</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>61.4 (±8.9)</t>
+          <t>94.0 (±11.1)</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>11.6 (±8.9)</t>
+          <t>15.0 (±11.1)</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>18.9% (±15.1%)</t>
+          <t>16.0% (±12.3%)</t>
         </is>
       </c>
       <c r="W27" t="n">
-        <v>3774</v>
+        <v>6092</v>
       </c>
       <c r="X27" t="n">
-        <v>307.4</v>
+        <v>246.2</v>
       </c>
       <c r="Y27" t="n">
-        <v>235.8</v>
+        <v>182.2</v>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>307.4(±235.8)</t>
+          <t>246.2(±182.2)</t>
         </is>
       </c>
     </row>
@@ -2955,179 +2955,179 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Vratsa</t>
+          <t>Yambol</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>2020</v>
       </c>
       <c r="D28" t="n">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="E28" t="n">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="F28" t="n">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="G28" t="n">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="H28" t="n">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="I28" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J28" t="n">
-        <v>94.00000000000003</v>
+        <v>59.79999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>12.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L28" t="n">
         <v>1.96</v>
       </c>
       <c r="M28" t="n">
-        <v>11.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="N28" t="n">
-        <v>82.90000000000003</v>
+        <v>51.59999999999999</v>
       </c>
       <c r="O28" t="n">
-        <v>105.1</v>
+        <v>67.99999999999999</v>
       </c>
       <c r="P28" t="n">
-        <v>15</v>
+        <v>2.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="R28" t="n">
-        <v>16</v>
+        <v>3.7</v>
       </c>
       <c r="S28" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>94.0 (±11.1)</t>
+          <t>59.8 (±8.2)</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>15.0 (±11.1)</t>
+          <t>2.2 (±8.2)</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>16.0% (±12.3%)</t>
+          <t>3.7% (±12.5%)</t>
         </is>
       </c>
       <c r="W28" t="n">
-        <v>6259</v>
+        <v>4644</v>
       </c>
       <c r="X28" t="n">
-        <v>239.7</v>
+        <v>47.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>177.3</v>
+        <v>176.5</v>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>239.7(±177.3)</t>
+          <t>47.4(±176.5)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Yambol</t>
+          <t>Blagoevgrad</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>2020</v>
       </c>
       <c r="D29" t="n">
-        <v>62</v>
+        <v>287</v>
       </c>
       <c r="E29" t="n">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="F29" t="n">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="G29" t="n">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="H29" t="n">
-        <v>54</v>
+        <v>253</v>
       </c>
       <c r="I29" t="n">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="J29" t="n">
-        <v>59.79999999999999</v>
+        <v>221.9999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>9.300000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="L29" t="n">
         <v>1.96</v>
       </c>
       <c r="M29" t="n">
-        <v>8.199999999999999</v>
+        <v>18</v>
       </c>
       <c r="N29" t="n">
-        <v>51.59999999999999</v>
+        <v>203.9999999999999</v>
       </c>
       <c r="O29" t="n">
-        <v>67.99999999999999</v>
+        <v>239.9999999999999</v>
       </c>
       <c r="P29" t="n">
-        <v>2.2</v>
+        <v>65</v>
       </c>
       <c r="Q29" t="n">
-        <v>8.199999999999999</v>
+        <v>18</v>
       </c>
       <c r="R29" t="n">
-        <v>3.7</v>
+        <v>29.3</v>
       </c>
       <c r="S29" t="n">
-        <v>12.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>59.8 (±8.2)</t>
+          <t>222.0 (±18.0)</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>2.2 (±8.2)</t>
+          <t>65.0 (±18.0)</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>3.7% (±12.5%)</t>
+          <t>29.3% (±9.7%)</t>
         </is>
       </c>
       <c r="W29" t="n">
-        <v>4762</v>
+        <v>8926</v>
       </c>
       <c r="X29" t="n">
-        <v>46.2</v>
+        <v>728.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>172.2</v>
+        <v>201.7</v>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>46.2(±172.2)</t>
+          <t>728.2(±201.7)</t>
         </is>
       </c>
     </row>
@@ -3139,87 +3139,87 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Blagoevgrad</t>
+          <t>Burgas</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>2020</v>
       </c>
       <c r="D30" t="n">
-        <v>287</v>
+        <v>355</v>
       </c>
       <c r="E30" t="n">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="F30" t="n">
-        <v>207</v>
+        <v>332</v>
       </c>
       <c r="G30" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="H30" t="n">
-        <v>253</v>
+        <v>324</v>
       </c>
       <c r="I30" t="n">
-        <v>198</v>
+        <v>299</v>
       </c>
       <c r="J30" t="n">
-        <v>221.9999999999999</v>
+        <v>324.1999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>20.5</v>
+        <v>13.7</v>
       </c>
       <c r="L30" t="n">
         <v>1.96</v>
       </c>
       <c r="M30" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N30" t="n">
-        <v>203.9999999999999</v>
+        <v>312.1999999999999</v>
       </c>
       <c r="O30" t="n">
-        <v>239.9999999999999</v>
+        <v>336.1999999999999</v>
       </c>
       <c r="P30" t="n">
-        <v>65</v>
+        <v>30.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R30" t="n">
-        <v>29.3</v>
+        <v>9.5</v>
       </c>
       <c r="S30" t="n">
-        <v>9.699999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>222.0 (±18.0)</t>
+          <t>324.2 (±12.0)</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>65.0 (±18.0)</t>
+          <t>30.8 (±12.0)</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>29.3% (±9.7%)</t>
+          <t>9.5% (±3.9%)</t>
         </is>
       </c>
       <c r="W30" t="n">
-        <v>8924</v>
+        <v>11895</v>
       </c>
       <c r="X30" t="n">
-        <v>728.4</v>
+        <v>258.9</v>
       </c>
       <c r="Y30" t="n">
-        <v>201.7</v>
+        <v>100.9</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>728.4(±201.7)</t>
+          <t>258.9(±100.9)</t>
         </is>
       </c>
     </row>
@@ -3231,87 +3231,87 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Burgas</t>
+          <t>Dobrich</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>2020</v>
       </c>
       <c r="D31" t="n">
-        <v>355</v>
+        <v>186</v>
       </c>
       <c r="E31" t="n">
-        <v>308</v>
+        <v>196</v>
       </c>
       <c r="F31" t="n">
-        <v>332</v>
+        <v>192</v>
       </c>
       <c r="G31" t="n">
-        <v>334</v>
+        <v>189</v>
       </c>
       <c r="H31" t="n">
-        <v>324</v>
+        <v>185</v>
       </c>
       <c r="I31" t="n">
-        <v>299</v>
+        <v>190</v>
       </c>
       <c r="J31" t="n">
-        <v>324.1999999999999</v>
+        <v>195.9999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>13.7</v>
+        <v>3.6</v>
       </c>
       <c r="L31" t="n">
         <v>1.96</v>
       </c>
       <c r="M31" t="n">
-        <v>12</v>
+        <v>3.2</v>
       </c>
       <c r="N31" t="n">
-        <v>312.1999999999999</v>
+        <v>192.8</v>
       </c>
       <c r="O31" t="n">
-        <v>336.1999999999999</v>
+        <v>199.1999999999999</v>
       </c>
       <c r="P31" t="n">
-        <v>30.8</v>
+        <v>-10</v>
       </c>
       <c r="Q31" t="n">
-        <v>12</v>
+        <v>3.2</v>
       </c>
       <c r="R31" t="n">
-        <v>9.5</v>
+        <v>-5.1</v>
       </c>
       <c r="S31" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>324.2 (±12.0)</t>
+          <t>196.0 (±3.2)</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>30.8 (±12.0)</t>
+          <t>-10.0 (±3.2)</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>9.5% (±3.9%)</t>
+          <t>-5.1% (±1.5%)</t>
         </is>
       </c>
       <c r="W31" t="n">
-        <v>11991</v>
+        <v>5273</v>
       </c>
       <c r="X31" t="n">
-        <v>256.9</v>
+        <v>-189.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>100</v>
+        <v>60.6</v>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>256.9(±100.0)</t>
+          <t>-189.6(±60.6)</t>
         </is>
       </c>
     </row>
@@ -3323,87 +3323,87 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dobrich</t>
+          <t>Gabrovo</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>2020</v>
       </c>
       <c r="D32" t="n">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="E32" t="n">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="F32" t="n">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="G32" t="n">
-        <v>189</v>
+        <v>120</v>
       </c>
       <c r="H32" t="n">
-        <v>185</v>
+        <v>116</v>
       </c>
       <c r="I32" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="J32" t="n">
-        <v>195.9999999999999</v>
+        <v>116</v>
       </c>
       <c r="K32" t="n">
-        <v>3.6</v>
+        <v>7.4</v>
       </c>
       <c r="L32" t="n">
         <v>1.96</v>
       </c>
       <c r="M32" t="n">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N32" t="n">
-        <v>192.8</v>
+        <v>109.5</v>
       </c>
       <c r="O32" t="n">
-        <v>199.1999999999999</v>
+        <v>122.5</v>
       </c>
       <c r="P32" t="n">
-        <v>-10</v>
+        <v>6</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="R32" t="n">
-        <v>-5.1</v>
+        <v>5.2</v>
       </c>
       <c r="S32" t="n">
-        <v>1.5</v>
+        <v>5.6</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>196.0 (±3.2)</t>
+          <t>116.0 (±6.5)</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>-10.0 (±3.2)</t>
+          <t>6.0 (±6.5)</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>-5.1% (±1.5%)</t>
+          <t>5.2% (±5.6%)</t>
         </is>
       </c>
       <c r="W32" t="n">
-        <v>5468</v>
+        <v>3679</v>
       </c>
       <c r="X32" t="n">
-        <v>-182.9</v>
+        <v>163.1</v>
       </c>
       <c r="Y32" t="n">
-        <v>58.5</v>
+        <v>176.7</v>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>-182.9(±58.5)</t>
+          <t>163.1(±176.7)</t>
         </is>
       </c>
     </row>
@@ -3415,87 +3415,87 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Gabrovo</t>
+          <t>Haskovo</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>2020</v>
       </c>
       <c r="D33" t="n">
-        <v>122</v>
+        <v>249</v>
       </c>
       <c r="E33" t="n">
-        <v>116</v>
+        <v>218</v>
       </c>
       <c r="F33" t="n">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="G33" t="n">
-        <v>120</v>
+        <v>239</v>
       </c>
       <c r="H33" t="n">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="I33" t="n">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="J33" t="n">
-        <v>116</v>
+        <v>222.6</v>
       </c>
       <c r="K33" t="n">
-        <v>7.4</v>
+        <v>13.8</v>
       </c>
       <c r="L33" t="n">
         <v>1.96</v>
       </c>
       <c r="M33" t="n">
-        <v>6.5</v>
+        <v>12.1</v>
       </c>
       <c r="N33" t="n">
-        <v>109.5</v>
+        <v>210.5</v>
       </c>
       <c r="O33" t="n">
-        <v>122.5</v>
+        <v>234.7</v>
       </c>
       <c r="P33" t="n">
-        <v>6</v>
+        <v>26.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.5</v>
+        <v>12.1</v>
       </c>
       <c r="R33" t="n">
-        <v>5.2</v>
+        <v>11.9</v>
       </c>
       <c r="S33" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>116.0 (±6.5)</t>
+          <t>222.6 (±12.1)</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>6.0 (±6.5)</t>
+          <t>26.4 (±12.1)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>5.2% (±5.6%)</t>
+          <t>11.9% (±5.8%)</t>
         </is>
       </c>
       <c r="W33" t="n">
-        <v>3733</v>
+        <v>7191</v>
       </c>
       <c r="X33" t="n">
-        <v>160.7</v>
+        <v>367.1</v>
       </c>
       <c r="Y33" t="n">
-        <v>174.2</v>
+        <v>168.3</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>160.7(±174.2)</t>
+          <t>367.1(±168.3)</t>
         </is>
       </c>
     </row>
@@ -3507,87 +3507,87 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Haskovo</t>
+          <t>Kardzhali</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>2020</v>
       </c>
       <c r="D34" t="n">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="E34" t="n">
-        <v>218</v>
+        <v>96</v>
       </c>
       <c r="F34" t="n">
-        <v>216</v>
+        <v>100</v>
       </c>
       <c r="G34" t="n">
-        <v>239</v>
+        <v>89</v>
       </c>
       <c r="H34" t="n">
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="I34" t="n">
-        <v>212</v>
+        <v>108</v>
       </c>
       <c r="J34" t="n">
-        <v>222.6</v>
+        <v>101</v>
       </c>
       <c r="K34" t="n">
-        <v>13.8</v>
+        <v>6.2</v>
       </c>
       <c r="L34" t="n">
         <v>1.96</v>
       </c>
       <c r="M34" t="n">
-        <v>12.1</v>
+        <v>5.4</v>
       </c>
       <c r="N34" t="n">
-        <v>210.5</v>
+        <v>95.60000000000001</v>
       </c>
       <c r="O34" t="n">
-        <v>234.7</v>
+        <v>106.4</v>
       </c>
       <c r="P34" t="n">
-        <v>26.4</v>
+        <v>34</v>
       </c>
       <c r="Q34" t="n">
-        <v>12.1</v>
+        <v>5.4</v>
       </c>
       <c r="R34" t="n">
-        <v>11.9</v>
+        <v>33.7</v>
       </c>
       <c r="S34" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>222.6 (±12.1)</t>
+          <t>101.0 (±5.4)</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>26.4 (±12.1)</t>
+          <t>34.0 (±5.4)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>11.9% (±5.8%)</t>
+          <t>33.7% (±6.8%)</t>
         </is>
       </c>
       <c r="W34" t="n">
-        <v>7251</v>
+        <v>5685</v>
       </c>
       <c r="X34" t="n">
-        <v>364.1</v>
+        <v>598.1</v>
       </c>
       <c r="Y34" t="n">
-        <v>166.9</v>
+        <v>95</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>364.1(±166.9)</t>
+          <t>598.1(±95.0)</t>
         </is>
       </c>
     </row>
@@ -3599,87 +3599,87 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Kardzhali</t>
+          <t>Kyustendil</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>2020</v>
       </c>
       <c r="D35" t="n">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="E35" t="n">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="G35" t="n">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="H35" t="n">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="I35" t="n">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="J35" t="n">
-        <v>101</v>
+        <v>143.2</v>
       </c>
       <c r="K35" t="n">
-        <v>6.2</v>
+        <v>8.5</v>
       </c>
       <c r="L35" t="n">
         <v>1.96</v>
       </c>
       <c r="M35" t="n">
-        <v>5.4</v>
+        <v>7.5</v>
       </c>
       <c r="N35" t="n">
-        <v>95.60000000000001</v>
+        <v>135.7</v>
       </c>
       <c r="O35" t="n">
-        <v>106.4</v>
+        <v>150.7</v>
       </c>
       <c r="P35" t="n">
-        <v>34</v>
+        <v>26.8</v>
       </c>
       <c r="Q35" t="n">
-        <v>5.4</v>
+        <v>7.5</v>
       </c>
       <c r="R35" t="n">
-        <v>33.7</v>
+        <v>18.7</v>
       </c>
       <c r="S35" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>101.0 (±5.4)</t>
+          <t>143.2 (±7.5)</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>34.0 (±5.4)</t>
+          <t>26.8 (±7.5)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>33.7% (±6.8%)</t>
+          <t>18.7% (±5.9%)</t>
         </is>
       </c>
       <c r="W35" t="n">
-        <v>5495</v>
+        <v>4073</v>
       </c>
       <c r="X35" t="n">
-        <v>618.7</v>
+        <v>658</v>
       </c>
       <c r="Y35" t="n">
-        <v>98.3</v>
+        <v>184.1</v>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>618.7(±98.3)</t>
+          <t>658.0(±184.1)</t>
         </is>
       </c>
     </row>
@@ -3691,32 +3691,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Kyustendil</t>
+          <t>Lovech</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>2020</v>
       </c>
       <c r="D36" t="n">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="E36" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F36" t="n">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="G36" t="n">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="H36" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I36" t="n">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="J36" t="n">
-        <v>143.2</v>
+        <v>127.2</v>
       </c>
       <c r="K36" t="n">
         <v>8.5</v>
@@ -3728,50 +3728,50 @@
         <v>7.5</v>
       </c>
       <c r="N36" t="n">
-        <v>135.7</v>
+        <v>119.7</v>
       </c>
       <c r="O36" t="n">
-        <v>150.7</v>
+        <v>134.7</v>
       </c>
       <c r="P36" t="n">
-        <v>26.8</v>
+        <v>5.8</v>
       </c>
       <c r="Q36" t="n">
         <v>7.5</v>
       </c>
       <c r="R36" t="n">
-        <v>18.7</v>
+        <v>4.6</v>
       </c>
       <c r="S36" t="n">
         <v>5.9</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>143.2 (±7.5)</t>
+          <t>127.2 (±7.5)</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>26.8 (±7.5)</t>
+          <t>5.8 (±7.5)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>18.7% (±5.9%)</t>
+          <t>4.6% (±5.9%)</t>
         </is>
       </c>
       <c r="W36" t="n">
-        <v>4213</v>
+        <v>3984</v>
       </c>
       <c r="X36" t="n">
-        <v>636.1</v>
+        <v>145.6</v>
       </c>
       <c r="Y36" t="n">
-        <v>178</v>
+        <v>188.2</v>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>636.1(±178.0)</t>
+          <t>145.6(±188.2)</t>
         </is>
       </c>
     </row>
@@ -3783,87 +3783,87 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Lovech</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>2020</v>
       </c>
       <c r="D37" t="n">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="E37" t="n">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="F37" t="n">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="G37" t="n">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="H37" t="n">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="I37" t="n">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="J37" t="n">
-        <v>127.2</v>
+        <v>156.8</v>
       </c>
       <c r="K37" t="n">
-        <v>8.5</v>
+        <v>14.1</v>
       </c>
       <c r="L37" t="n">
         <v>1.96</v>
       </c>
       <c r="M37" t="n">
-        <v>7.5</v>
+        <v>12.4</v>
       </c>
       <c r="N37" t="n">
-        <v>119.7</v>
+        <v>144.4</v>
       </c>
       <c r="O37" t="n">
-        <v>134.7</v>
+        <v>169.2</v>
       </c>
       <c r="P37" t="n">
-        <v>5.8</v>
+        <v>44.2</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.5</v>
+        <v>12.4</v>
       </c>
       <c r="R37" t="n">
-        <v>4.6</v>
+        <v>28.2</v>
       </c>
       <c r="S37" t="n">
-        <v>5.9</v>
+        <v>9.4</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>127.2 (±7.5)</t>
+          <t>156.8 (±12.4)</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>5.8 (±7.5)</t>
+          <t>44.2 (±12.4)</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>4.6% (±5.9%)</t>
+          <t>28.2% (±9.4%)</t>
         </is>
       </c>
       <c r="W37" t="n">
-        <v>4056</v>
+        <v>4274</v>
       </c>
       <c r="X37" t="n">
-        <v>143</v>
+        <v>1034.2</v>
       </c>
       <c r="Y37" t="n">
-        <v>184.9</v>
+        <v>290.1</v>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>143.0(±184.9)</t>
+          <t>1034.2(±290.1)</t>
         </is>
       </c>
     </row>
@@ -3875,87 +3875,87 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Pazardzhik</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>2020</v>
       </c>
       <c r="D38" t="n">
-        <v>201</v>
+        <v>271</v>
       </c>
       <c r="E38" t="n">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="F38" t="n">
-        <v>156</v>
+        <v>223</v>
       </c>
       <c r="G38" t="n">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="H38" t="n">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="I38" t="n">
-        <v>134</v>
+        <v>218</v>
       </c>
       <c r="J38" t="n">
-        <v>156.8</v>
+        <v>228.1999999999999</v>
       </c>
       <c r="K38" t="n">
-        <v>14.1</v>
+        <v>12.4</v>
       </c>
       <c r="L38" t="n">
         <v>1.96</v>
       </c>
       <c r="M38" t="n">
-        <v>12.4</v>
+        <v>10.9</v>
       </c>
       <c r="N38" t="n">
-        <v>144.4</v>
+        <v>217.2999999999999</v>
       </c>
       <c r="O38" t="n">
-        <v>169.2</v>
+        <v>239.0999999999999</v>
       </c>
       <c r="P38" t="n">
-        <v>44.2</v>
+        <v>42.8</v>
       </c>
       <c r="Q38" t="n">
-        <v>12.4</v>
+        <v>10.9</v>
       </c>
       <c r="R38" t="n">
-        <v>28.2</v>
+        <v>18.8</v>
       </c>
       <c r="S38" t="n">
-        <v>9.4</v>
+        <v>5.5</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>156.8 (±12.4)</t>
+          <t>228.2 (±10.9)</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>44.2 (±12.4)</t>
+          <t>42.8 (±10.9)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>28.2% (±9.4%)</t>
+          <t>18.8% (±5.5%)</t>
         </is>
       </c>
       <c r="W38" t="n">
-        <v>4505</v>
+        <v>7212</v>
       </c>
       <c r="X38" t="n">
-        <v>981.1</v>
+        <v>593.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>275.3</v>
+        <v>151.1</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>981.1(±275.3)</t>
+          <t>593.5(±151.1)</t>
         </is>
       </c>
     </row>
@@ -3967,87 +3967,87 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Pazardzhik</t>
+          <t>Pernik</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>2020</v>
       </c>
       <c r="D39" t="n">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="E39" t="n">
-        <v>247</v>
+        <v>138</v>
       </c>
       <c r="F39" t="n">
-        <v>223</v>
+        <v>125</v>
       </c>
       <c r="G39" t="n">
-        <v>211</v>
+        <v>125</v>
       </c>
       <c r="H39" t="n">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="I39" t="n">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="J39" t="n">
-        <v>228.1999999999999</v>
+        <v>126.6000000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>12.4</v>
+        <v>9.9</v>
       </c>
       <c r="L39" t="n">
         <v>1.96</v>
       </c>
       <c r="M39" t="n">
-        <v>10.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="N39" t="n">
-        <v>217.2999999999999</v>
+        <v>117.9</v>
       </c>
       <c r="O39" t="n">
-        <v>239.0999999999999</v>
+        <v>135.3</v>
       </c>
       <c r="P39" t="n">
-        <v>42.8</v>
+        <v>27.4</v>
       </c>
       <c r="Q39" t="n">
-        <v>10.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="R39" t="n">
-        <v>18.8</v>
+        <v>21.6</v>
       </c>
       <c r="S39" t="n">
-        <v>5.5</v>
+        <v>7.8</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>228.2 (±10.9)</t>
+          <t>126.6 (±8.7)</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>42.8 (±10.9)</t>
+          <t>27.4 (±8.7)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>18.8% (±5.5%)</t>
+          <t>21.6% (±7.8%)</t>
         </is>
       </c>
       <c r="W39" t="n">
-        <v>7205</v>
+        <v>3864</v>
       </c>
       <c r="X39" t="n">
-        <v>594</v>
+        <v>709.1</v>
       </c>
       <c r="Y39" t="n">
-        <v>151.3</v>
+        <v>225.2</v>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>594.0(±151.3)</t>
+          <t>709.1(±225.2)</t>
         </is>
       </c>
     </row>
@@ -4059,87 +4059,87 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Pernik</t>
+          <t>Pleven</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>2020</v>
       </c>
       <c r="D40" t="n">
-        <v>153</v>
+        <v>270</v>
       </c>
       <c r="E40" t="n">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="F40" t="n">
-        <v>125</v>
+        <v>226</v>
       </c>
       <c r="G40" t="n">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="H40" t="n">
-        <v>107</v>
+        <v>264</v>
       </c>
       <c r="I40" t="n">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="J40" t="n">
-        <v>126.6000000000001</v>
+        <v>251</v>
       </c>
       <c r="K40" t="n">
-        <v>9.9</v>
+        <v>16.6</v>
       </c>
       <c r="L40" t="n">
         <v>1.96</v>
       </c>
       <c r="M40" t="n">
-        <v>8.699999999999999</v>
+        <v>14.6</v>
       </c>
       <c r="N40" t="n">
-        <v>117.9</v>
+        <v>236.4</v>
       </c>
       <c r="O40" t="n">
-        <v>135.3</v>
+        <v>265.6</v>
       </c>
       <c r="P40" t="n">
-        <v>26.4</v>
+        <v>19</v>
       </c>
       <c r="Q40" t="n">
-        <v>8.699999999999999</v>
+        <v>14.6</v>
       </c>
       <c r="R40" t="n">
-        <v>20.9</v>
+        <v>7.6</v>
       </c>
       <c r="S40" t="n">
-        <v>7.8</v>
+        <v>5.9</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>126.6 (±8.7)</t>
+          <t>251.0 (±14.6)</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>26.4 (±8.7)</t>
+          <t>19.0 (±14.6)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>20.9% (±7.8%)</t>
+          <t>7.6% (±5.9%)</t>
         </is>
       </c>
       <c r="W40" t="n">
-        <v>3923</v>
+        <v>7822</v>
       </c>
       <c r="X40" t="n">
-        <v>673</v>
+        <v>242.9</v>
       </c>
       <c r="Y40" t="n">
-        <v>221.7</v>
+        <v>186.7</v>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>673.0(±221.7)</t>
+          <t>242.9(±186.7)</t>
         </is>
       </c>
     </row>
@@ -4151,87 +4151,87 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Pleven</t>
+          <t>Plovdiv</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>2020</v>
       </c>
       <c r="D41" t="n">
-        <v>270</v>
+        <v>629</v>
       </c>
       <c r="E41" t="n">
-        <v>261</v>
+        <v>486</v>
       </c>
       <c r="F41" t="n">
-        <v>226</v>
+        <v>514</v>
       </c>
       <c r="G41" t="n">
-        <v>247</v>
+        <v>525</v>
       </c>
       <c r="H41" t="n">
-        <v>264</v>
+        <v>472</v>
       </c>
       <c r="I41" t="n">
-        <v>225</v>
+        <v>493</v>
       </c>
       <c r="J41" t="n">
-        <v>251</v>
+        <v>508.4000000000002</v>
       </c>
       <c r="K41" t="n">
-        <v>16.6</v>
+        <v>19.1</v>
       </c>
       <c r="L41" t="n">
         <v>1.96</v>
       </c>
       <c r="M41" t="n">
-        <v>14.6</v>
+        <v>16.7</v>
       </c>
       <c r="N41" t="n">
-        <v>236.4</v>
+        <v>491.7000000000002</v>
       </c>
       <c r="O41" t="n">
-        <v>265.6</v>
+        <v>525.1000000000003</v>
       </c>
       <c r="P41" t="n">
-        <v>19</v>
+        <v>120.6</v>
       </c>
       <c r="Q41" t="n">
-        <v>14.6</v>
+        <v>16.7</v>
       </c>
       <c r="R41" t="n">
-        <v>7.6</v>
+        <v>23.7</v>
       </c>
       <c r="S41" t="n">
-        <v>5.9</v>
+        <v>3.9</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>251.0 (±14.6)</t>
+          <t>508.4 (±16.7)</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>19.0 (±14.6)</t>
+          <t>120.6 (±16.7)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>7.6% (±5.9%)</t>
+          <t>23.7% (±3.9%)</t>
         </is>
       </c>
       <c r="W41" t="n">
-        <v>8159</v>
+        <v>17537</v>
       </c>
       <c r="X41" t="n">
-        <v>232.9</v>
+        <v>687.7</v>
       </c>
       <c r="Y41" t="n">
-        <v>178.9</v>
+        <v>95.2</v>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>232.9(±178.9)</t>
+          <t>687.7(±95.2)</t>
         </is>
       </c>
     </row>
@@ -4243,87 +4243,87 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Plovdiv</t>
+          <t>Razgrad</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>2020</v>
       </c>
       <c r="D42" t="n">
-        <v>629</v>
+        <v>165</v>
       </c>
       <c r="E42" t="n">
-        <v>486</v>
+        <v>124</v>
       </c>
       <c r="F42" t="n">
-        <v>514</v>
+        <v>117</v>
       </c>
       <c r="G42" t="n">
-        <v>525</v>
+        <v>100</v>
       </c>
       <c r="H42" t="n">
-        <v>472</v>
+        <v>120</v>
       </c>
       <c r="I42" t="n">
-        <v>493</v>
+        <v>131</v>
       </c>
       <c r="J42" t="n">
-        <v>508.4000000000002</v>
+        <v>120.8</v>
       </c>
       <c r="K42" t="n">
-        <v>19.1</v>
+        <v>10.3</v>
       </c>
       <c r="L42" t="n">
         <v>1.96</v>
       </c>
       <c r="M42" t="n">
-        <v>16.7</v>
+        <v>9</v>
       </c>
       <c r="N42" t="n">
-        <v>491.7000000000002</v>
+        <v>111.8</v>
       </c>
       <c r="O42" t="n">
-        <v>525.1000000000003</v>
+        <v>129.8</v>
       </c>
       <c r="P42" t="n">
-        <v>120.6</v>
+        <v>44.2</v>
       </c>
       <c r="Q42" t="n">
-        <v>16.7</v>
+        <v>9</v>
       </c>
       <c r="R42" t="n">
-        <v>23.7</v>
+        <v>36.6</v>
       </c>
       <c r="S42" t="n">
-        <v>3.9</v>
+        <v>9.5</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>508.4 (±16.7)</t>
+          <t>120.8 (±9.0)</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>120.6 (±16.7)</t>
+          <t>44.2 (±9.0)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>23.7% (±3.9%)</t>
+          <t>36.6% (±9.5%)</t>
         </is>
       </c>
       <c r="W42" t="n">
-        <v>17962</v>
+        <v>3530</v>
       </c>
       <c r="X42" t="n">
-        <v>671.4</v>
+        <v>1252.1</v>
       </c>
       <c r="Y42" t="n">
-        <v>93</v>
+        <v>255</v>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>671.4(±93.0)</t>
+          <t>1252.1(±255.0)</t>
         </is>
       </c>
     </row>
@@ -4335,87 +4335,87 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Razgrad</t>
+          <t>Ruse</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>2020</v>
       </c>
       <c r="D43" t="n">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="E43" t="n">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="F43" t="n">
-        <v>117</v>
+        <v>194</v>
       </c>
       <c r="G43" t="n">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="H43" t="n">
-        <v>120</v>
+        <v>237</v>
       </c>
       <c r="I43" t="n">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="J43" t="n">
-        <v>120.8</v>
+        <v>205.2</v>
       </c>
       <c r="K43" t="n">
-        <v>10.3</v>
+        <v>22.6</v>
       </c>
       <c r="L43" t="n">
         <v>1.96</v>
       </c>
       <c r="M43" t="n">
-        <v>9</v>
+        <v>19.8</v>
       </c>
       <c r="N43" t="n">
-        <v>111.8</v>
+        <v>185.4</v>
       </c>
       <c r="O43" t="n">
-        <v>129.8</v>
+        <v>225</v>
       </c>
       <c r="P43" t="n">
-        <v>44.2</v>
+        <v>31.8</v>
       </c>
       <c r="Q43" t="n">
-        <v>9</v>
+        <v>19.8</v>
       </c>
       <c r="R43" t="n">
-        <v>36.6</v>
+        <v>15.5</v>
       </c>
       <c r="S43" t="n">
-        <v>9.5</v>
+        <v>10.2</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>120.8 (±9.0)</t>
+          <t>205.2 (±19.8)</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>44.2 (±9.0)</t>
+          <t>31.8 (±19.8)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>36.6% (±9.5%)</t>
+          <t>15.5% (±10.2%)</t>
         </is>
       </c>
       <c r="W43" t="n">
-        <v>3535</v>
+        <v>6628</v>
       </c>
       <c r="X43" t="n">
-        <v>1250.4</v>
+        <v>479.8</v>
       </c>
       <c r="Y43" t="n">
-        <v>254.6</v>
+        <v>298.7</v>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>1250.4(±254.6)</t>
+          <t>479.8(±298.7)</t>
         </is>
       </c>
     </row>
@@ -4427,87 +4427,87 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ruse</t>
+          <t>Shumen</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>2020</v>
       </c>
       <c r="D44" t="n">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="E44" t="n">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="F44" t="n">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="G44" t="n">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H44" t="n">
-        <v>237</v>
+        <v>148</v>
       </c>
       <c r="I44" t="n">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="J44" t="n">
-        <v>205.2</v>
+        <v>157</v>
       </c>
       <c r="K44" t="n">
-        <v>22.6</v>
+        <v>5.1</v>
       </c>
       <c r="L44" t="n">
         <v>1.96</v>
       </c>
       <c r="M44" t="n">
-        <v>19.8</v>
+        <v>4.5</v>
       </c>
       <c r="N44" t="n">
-        <v>185.4</v>
+        <v>152.5</v>
       </c>
       <c r="O44" t="n">
-        <v>225</v>
+        <v>161.5</v>
       </c>
       <c r="P44" t="n">
-        <v>31.8</v>
+        <v>22</v>
       </c>
       <c r="Q44" t="n">
-        <v>19.8</v>
+        <v>4.5</v>
       </c>
       <c r="R44" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="S44" t="n">
-        <v>10.2</v>
+        <v>3.2</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>205.2 (±19.8)</t>
+          <t>157.0 (±4.5)</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>31.8 (±19.8)</t>
+          <t>22.0 (±4.5)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>15.5% (±10.2%)</t>
+          <t>14.0% (±3.2%)</t>
         </is>
       </c>
       <c r="W44" t="n">
-        <v>6855</v>
+        <v>5464</v>
       </c>
       <c r="X44" t="n">
-        <v>463.9</v>
+        <v>402.6</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.8</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>463.9(±288.8)</t>
+          <t>402.6(±82.4)</t>
         </is>
       </c>
     </row>
@@ -4519,87 +4519,87 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Shumen</t>
+          <t>Silistra</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>2020</v>
       </c>
       <c r="D45" t="n">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="E45" t="n">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="F45" t="n">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="G45" t="n">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="H45" t="n">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="I45" t="n">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="J45" t="n">
-        <v>157</v>
+        <v>114.2</v>
       </c>
       <c r="K45" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L45" t="n">
         <v>1.96</v>
       </c>
       <c r="M45" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="N45" t="n">
+        <v>109.8</v>
+      </c>
+      <c r="O45" t="n">
+        <v>118.6</v>
+      </c>
+      <c r="P45" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>20</v>
+      </c>
+      <c r="S45" t="n">
         <v>4.5</v>
       </c>
-      <c r="N45" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="O45" t="n">
-        <v>161.5</v>
-      </c>
-      <c r="P45" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>14</v>
-      </c>
-      <c r="S45" t="n">
-        <v>3.2</v>
-      </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>157.0 (±4.5)</t>
+          <t>114.2 (±4.4)</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>22.0 (±4.5)</t>
+          <t>22.8 (±4.4)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>14.0% (±3.2%)</t>
+          <t>20.0% (±4.5%)</t>
         </is>
       </c>
       <c r="W45" t="n">
-        <v>5562</v>
+        <v>3477</v>
       </c>
       <c r="X45" t="n">
-        <v>395.5</v>
+        <v>655.7</v>
       </c>
       <c r="Y45" t="n">
-        <v>80.90000000000001</v>
+        <v>126.6</v>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>395.5(±80.9)</t>
+          <t>655.7(±126.6)</t>
         </is>
       </c>
     </row>
@@ -4611,87 +4611,87 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Silistra</t>
+          <t>Sliven</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>2020</v>
       </c>
       <c r="D46" t="n">
-        <v>137</v>
+        <v>200</v>
       </c>
       <c r="E46" t="n">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="F46" t="n">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="G46" t="n">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="H46" t="n">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="I46" t="n">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="J46" t="n">
-        <v>114.2</v>
+        <v>170.4</v>
       </c>
       <c r="K46" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L46" t="n">
         <v>1.96</v>
       </c>
       <c r="M46" t="n">
-        <v>4.4</v>
+        <v>13.1</v>
       </c>
       <c r="N46" t="n">
-        <v>109.8</v>
+        <v>157.3</v>
       </c>
       <c r="O46" t="n">
-        <v>118.6</v>
+        <v>183.5</v>
       </c>
       <c r="P46" t="n">
-        <v>22.8</v>
+        <v>29.6</v>
       </c>
       <c r="Q46" t="n">
-        <v>4.4</v>
+        <v>13.1</v>
       </c>
       <c r="R46" t="n">
-        <v>20</v>
+        <v>17.4</v>
       </c>
       <c r="S46" t="n">
-        <v>4.5</v>
+        <v>8.4</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>114.2 (±4.4)</t>
+          <t>170.4 (±13.1)</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>22.8 (±4.4)</t>
+          <t>29.6 (±13.1)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>20.0% (±4.5%)</t>
+          <t>17.4% (±8.4%)</t>
         </is>
       </c>
       <c r="W46" t="n">
-        <v>3664</v>
+        <v>5136</v>
       </c>
       <c r="X46" t="n">
-        <v>622.3</v>
+        <v>576.3</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.1</v>
+        <v>255.1</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>622.3(±120.1)</t>
+          <t>576.3(±255.1)</t>
         </is>
       </c>
     </row>
@@ -4703,87 +4703,87 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sliven</t>
+          <t>Smolyan</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>2020</v>
       </c>
       <c r="D47" t="n">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="E47" t="n">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="F47" t="n">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="G47" t="n">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="H47" t="n">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="I47" t="n">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="J47" t="n">
-        <v>170.4</v>
+        <v>99.60000000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>15</v>
+        <v>10.1</v>
       </c>
       <c r="L47" t="n">
         <v>1.96</v>
       </c>
       <c r="M47" t="n">
-        <v>13.1</v>
+        <v>8.9</v>
       </c>
       <c r="N47" t="n">
-        <v>157.3</v>
+        <v>90.7</v>
       </c>
       <c r="O47" t="n">
-        <v>183.5</v>
+        <v>108.5</v>
       </c>
       <c r="P47" t="n">
-        <v>29.6</v>
+        <v>18.4</v>
       </c>
       <c r="Q47" t="n">
-        <v>13.1</v>
+        <v>8.9</v>
       </c>
       <c r="R47" t="n">
-        <v>17.4</v>
+        <v>18.5</v>
       </c>
       <c r="S47" t="n">
-        <v>8.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>170.4 (±13.1)</t>
+          <t>99.6 (±8.9)</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>29.6 (±13.1)</t>
+          <t>18.4 (±8.9)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>17.4% (±8.4%)</t>
+          <t>18.5% (±9.7%)</t>
         </is>
       </c>
       <c r="W47" t="n">
-        <v>5250</v>
+        <v>3765</v>
       </c>
       <c r="X47" t="n">
-        <v>563.8</v>
+        <v>488.7</v>
       </c>
       <c r="Y47" t="n">
-        <v>249.5</v>
+        <v>236.4</v>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>563.8(±249.5)</t>
+          <t>488.7(±236.4)</t>
         </is>
       </c>
     </row>
@@ -4795,87 +4795,87 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Smolyan</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>2020</v>
       </c>
       <c r="D48" t="n">
-        <v>118</v>
+        <v>299</v>
       </c>
       <c r="E48" t="n">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="F48" t="n">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G48" t="n">
-        <v>104</v>
+        <v>261</v>
       </c>
       <c r="H48" t="n">
-        <v>109</v>
+        <v>230</v>
       </c>
       <c r="I48" t="n">
-        <v>91</v>
+        <v>206</v>
       </c>
       <c r="J48" t="n">
-        <v>99.60000000000001</v>
+        <v>239.4</v>
       </c>
       <c r="K48" t="n">
-        <v>10.1</v>
+        <v>18.9</v>
       </c>
       <c r="L48" t="n">
         <v>1.96</v>
       </c>
       <c r="M48" t="n">
-        <v>8.9</v>
+        <v>16.6</v>
       </c>
       <c r="N48" t="n">
-        <v>90.7</v>
+        <v>222.8</v>
       </c>
       <c r="O48" t="n">
-        <v>108.5</v>
+        <v>256</v>
       </c>
       <c r="P48" t="n">
-        <v>18.4</v>
+        <v>59.6</v>
       </c>
       <c r="Q48" t="n">
-        <v>8.9</v>
+        <v>16.6</v>
       </c>
       <c r="R48" t="n">
-        <v>18.5</v>
+        <v>24.9</v>
       </c>
       <c r="S48" t="n">
-        <v>9.699999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>99.6 (±8.9)</t>
+          <t>239.4 (±16.6)</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>18.4 (±8.9)</t>
+          <t>59.6 (±16.6)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>18.5% (±9.7%)</t>
+          <t>24.9% (±8.1%)</t>
         </is>
       </c>
       <c r="W48" t="n">
-        <v>3804</v>
+        <v>7543</v>
       </c>
       <c r="X48" t="n">
-        <v>483.7</v>
+        <v>790.1</v>
       </c>
       <c r="Y48" t="n">
-        <v>234</v>
+        <v>220.1</v>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>483.7(±234.0)</t>
+          <t>790.1(±220.1)</t>
         </is>
       </c>
     </row>
@@ -4887,87 +4887,87 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Stara Zagora</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>2020</v>
       </c>
       <c r="D49" t="n">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="E49" t="n">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="F49" t="n">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="G49" t="n">
         <v>261</v>
       </c>
       <c r="H49" t="n">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="I49" t="n">
-        <v>206</v>
+        <v>277</v>
       </c>
       <c r="J49" t="n">
-        <v>239.4</v>
+        <v>279.6</v>
       </c>
       <c r="K49" t="n">
-        <v>18.9</v>
+        <v>11.7</v>
       </c>
       <c r="L49" t="n">
         <v>1.96</v>
       </c>
       <c r="M49" t="n">
-        <v>16.6</v>
+        <v>10.3</v>
       </c>
       <c r="N49" t="n">
-        <v>222.8</v>
+        <v>269.3</v>
       </c>
       <c r="O49" t="n">
-        <v>256</v>
+        <v>289.9</v>
       </c>
       <c r="P49" t="n">
-        <v>59.6</v>
+        <v>29.4</v>
       </c>
       <c r="Q49" t="n">
-        <v>16.6</v>
+        <v>10.3</v>
       </c>
       <c r="R49" t="n">
-        <v>24.9</v>
+        <v>10.5</v>
       </c>
       <c r="S49" t="n">
-        <v>8.1</v>
+        <v>3.9</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>239.4 (±16.6)</t>
+          <t>279.6 (±10.3)</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>59.6 (±16.6)</t>
+          <t>29.4 (±10.3)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>24.9% (±8.1%)</t>
+          <t>10.5% (±3.9%)</t>
         </is>
       </c>
       <c r="W49" t="n">
-        <v>7183</v>
+        <v>9208</v>
       </c>
       <c r="X49" t="n">
-        <v>829.7</v>
+        <v>319.3</v>
       </c>
       <c r="Y49" t="n">
-        <v>231.1</v>
+        <v>111.8</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>829.7(±231.1)</t>
+          <t>319.3(±111.8)</t>
         </is>
       </c>
     </row>
@@ -4979,87 +4979,87 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sofia (stolitsa)</t>
+          <t>Targovishte</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>2020</v>
       </c>
       <c r="D50" t="n">
-        <v>951</v>
+        <v>130</v>
       </c>
       <c r="E50" t="n">
-        <v>830</v>
+        <v>113</v>
       </c>
       <c r="F50" t="n">
-        <v>823</v>
+        <v>122</v>
       </c>
       <c r="G50" t="n">
-        <v>733</v>
+        <v>110</v>
       </c>
       <c r="H50" t="n">
-        <v>790</v>
+        <v>72</v>
       </c>
       <c r="I50" t="n">
-        <v>769</v>
+        <v>84</v>
       </c>
       <c r="J50" t="n">
-        <v>803.3999999999999</v>
+        <v>103.4</v>
       </c>
       <c r="K50" t="n">
-        <v>35.7</v>
+        <v>18.9</v>
       </c>
       <c r="L50" t="n">
         <v>1.96</v>
       </c>
       <c r="M50" t="n">
-        <v>31.3</v>
+        <v>16.6</v>
       </c>
       <c r="N50" t="n">
-        <v>772.0999999999999</v>
+        <v>86.80000000000001</v>
       </c>
       <c r="O50" t="n">
-        <v>834.6999999999998</v>
+        <v>120</v>
       </c>
       <c r="P50" t="n">
-        <v>147.6</v>
+        <v>26.6</v>
       </c>
       <c r="Q50" t="n">
-        <v>31.3</v>
+        <v>16.6</v>
       </c>
       <c r="R50" t="n">
-        <v>18.4</v>
+        <v>25.7</v>
       </c>
       <c r="S50" t="n">
-        <v>4.5</v>
+        <v>17.4</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>803.4 (±31.3)</t>
+          <t>103.4 (±16.6)</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>147.6 (±31.3)</t>
+          <t>26.6 (±16.6)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>18.4% (±4.5%)</t>
+          <t>25.7% (±17.4%)</t>
         </is>
       </c>
       <c r="W50" t="n">
-        <v>30884</v>
+        <v>3423</v>
       </c>
       <c r="X50" t="n">
-        <v>477.9</v>
+        <v>777.1</v>
       </c>
       <c r="Y50" t="n">
-        <v>101.4</v>
+        <v>485</v>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>477.9(±101.4)</t>
+          <t>777.1(±485.0)</t>
         </is>
       </c>
     </row>
@@ -5071,87 +5071,87 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Stara Zagora</t>
+          <t>Varna</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>2020</v>
       </c>
       <c r="D51" t="n">
-        <v>309</v>
+        <v>424</v>
       </c>
       <c r="E51" t="n">
-        <v>274</v>
+        <v>358</v>
       </c>
       <c r="F51" t="n">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="G51" t="n">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="H51" t="n">
-        <v>273</v>
+        <v>334</v>
       </c>
       <c r="I51" t="n">
-        <v>277</v>
+        <v>341</v>
       </c>
       <c r="J51" t="n">
-        <v>279.6</v>
+        <v>339.9999999999999</v>
       </c>
       <c r="K51" t="n">
-        <v>11.7</v>
+        <v>15.2</v>
       </c>
       <c r="L51" t="n">
         <v>1.96</v>
       </c>
       <c r="M51" t="n">
-        <v>10.3</v>
+        <v>13.3</v>
       </c>
       <c r="N51" t="n">
-        <v>269.3</v>
+        <v>326.6999999999999</v>
       </c>
       <c r="O51" t="n">
-        <v>289.9</v>
+        <v>353.3</v>
       </c>
       <c r="P51" t="n">
-        <v>29.4</v>
+        <v>84</v>
       </c>
       <c r="Q51" t="n">
-        <v>10.3</v>
+        <v>13.3</v>
       </c>
       <c r="R51" t="n">
-        <v>10.5</v>
+        <v>24.7</v>
       </c>
       <c r="S51" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>279.6 (±10.3)</t>
+          <t>340.0 (±13.3)</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>29.4 (±10.3)</t>
+          <t>84.0 (±13.3)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>10.5% (±3.9%)</t>
+          <t>24.7% (±4.7%)</t>
         </is>
       </c>
       <c r="W51" t="n">
-        <v>9370</v>
+        <v>12371</v>
       </c>
       <c r="X51" t="n">
-        <v>313.8</v>
+        <v>679</v>
       </c>
       <c r="Y51" t="n">
-        <v>109.9</v>
+        <v>107.5</v>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>313.8(±109.9)</t>
+          <t>679.0(±107.5)</t>
         </is>
       </c>
     </row>
@@ -5163,87 +5163,87 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Targovishte</t>
+          <t>Veliko Tarnovo</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>2020</v>
       </c>
       <c r="D52" t="n">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="E52" t="n">
-        <v>113</v>
+        <v>224</v>
       </c>
       <c r="F52" t="n">
-        <v>122</v>
+        <v>213</v>
       </c>
       <c r="G52" t="n">
-        <v>110</v>
+        <v>218</v>
       </c>
       <c r="H52" t="n">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="I52" t="n">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="J52" t="n">
-        <v>103.4</v>
+        <v>216.2</v>
       </c>
       <c r="K52" t="n">
-        <v>18.9</v>
+        <v>7.8</v>
       </c>
       <c r="L52" t="n">
         <v>1.96</v>
       </c>
       <c r="M52" t="n">
-        <v>16.6</v>
+        <v>6.8</v>
       </c>
       <c r="N52" t="n">
-        <v>86.80000000000001</v>
+        <v>209.4</v>
       </c>
       <c r="O52" t="n">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="P52" t="n">
-        <v>26.6</v>
+        <v>45.8</v>
       </c>
       <c r="Q52" t="n">
-        <v>16.6</v>
+        <v>6.8</v>
       </c>
       <c r="R52" t="n">
-        <v>25.7</v>
+        <v>21.2</v>
       </c>
       <c r="S52" t="n">
-        <v>17.4</v>
+        <v>3.7</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>103.4 (±16.6)</t>
+          <t>216.2 (±6.8)</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>26.6 (±16.6)</t>
+          <t>45.8 (±6.8)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>25.7% (±17.4%)</t>
+          <t>21.2% (±3.7%)</t>
         </is>
       </c>
       <c r="W52" t="n">
-        <v>3515</v>
+        <v>7417</v>
       </c>
       <c r="X52" t="n">
-        <v>756.8</v>
+        <v>617.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>472.2</v>
+        <v>91.7</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>756.8(±472.2)</t>
+          <t>617.5(±91.7)</t>
         </is>
       </c>
     </row>
@@ -5255,87 +5255,87 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Varna</t>
+          <t>Vidin</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>2020</v>
       </c>
       <c r="D53" t="n">
-        <v>424</v>
+        <v>115</v>
       </c>
       <c r="E53" t="n">
-        <v>358</v>
+        <v>123</v>
       </c>
       <c r="F53" t="n">
-        <v>327</v>
+        <v>103</v>
       </c>
       <c r="G53" t="n">
-        <v>312</v>
+        <v>101</v>
       </c>
       <c r="H53" t="n">
-        <v>334</v>
+        <v>85</v>
       </c>
       <c r="I53" t="n">
-        <v>341</v>
+        <v>86</v>
       </c>
       <c r="J53" t="n">
-        <v>339.9999999999999</v>
+        <v>102</v>
       </c>
       <c r="K53" t="n">
-        <v>15.2</v>
+        <v>13.9</v>
       </c>
       <c r="L53" t="n">
         <v>1.96</v>
       </c>
       <c r="M53" t="n">
-        <v>13.3</v>
+        <v>12.2</v>
       </c>
       <c r="N53" t="n">
-        <v>326.6999999999999</v>
+        <v>89.8</v>
       </c>
       <c r="O53" t="n">
-        <v>353.3</v>
+        <v>114.2</v>
       </c>
       <c r="P53" t="n">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="Q53" t="n">
-        <v>13.3</v>
+        <v>12.2</v>
       </c>
       <c r="R53" t="n">
-        <v>24.7</v>
+        <v>12.7</v>
       </c>
       <c r="S53" t="n">
-        <v>4.7</v>
+        <v>12</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>340.0 (±13.3)</t>
+          <t>102.0 (±12.2)</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>84.0 (±13.3)</t>
+          <t>13.0 (±12.2)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>24.7% (±4.7%)</t>
+          <t>12.7% (±12.0%)</t>
         </is>
       </c>
       <c r="W53" t="n">
-        <v>12644</v>
+        <v>2953</v>
       </c>
       <c r="X53" t="n">
-        <v>664.3</v>
+        <v>440.2</v>
       </c>
       <c r="Y53" t="n">
-        <v>105.2</v>
+        <v>413.2</v>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>664.3(±105.2)</t>
+          <t>440.2(±413.2)</t>
         </is>
       </c>
     </row>
@@ -5347,87 +5347,87 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Veliko Tarnovo</t>
+          <t>Vratsa</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>2020</v>
       </c>
       <c r="D54" t="n">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="E54" t="n">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="F54" t="n">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="G54" t="n">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="H54" t="n">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="I54" t="n">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="J54" t="n">
-        <v>216.2</v>
+        <v>185.2</v>
       </c>
       <c r="K54" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="L54" t="n">
         <v>1.96</v>
       </c>
       <c r="M54" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="N54" t="n">
-        <v>209.4</v>
+        <v>177.7</v>
       </c>
       <c r="O54" t="n">
-        <v>223</v>
+        <v>192.7</v>
       </c>
       <c r="P54" t="n">
-        <v>45.8</v>
+        <v>17.8</v>
       </c>
       <c r="Q54" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="R54" t="n">
-        <v>21.2</v>
+        <v>9.6</v>
       </c>
       <c r="S54" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>216.2 (±6.8)</t>
+          <t>185.2 (±7.5)</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>45.8 (±6.8)</t>
+          <t>17.8 (±7.5)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>21.2% (±3.7%)</t>
+          <t>9.6% (±4.3%)</t>
         </is>
       </c>
       <c r="W54" t="n">
-        <v>7569</v>
+        <v>5108</v>
       </c>
       <c r="X54" t="n">
-        <v>605.1</v>
+        <v>348.5</v>
       </c>
       <c r="Y54" t="n">
-        <v>89.8</v>
+        <v>146.8</v>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>605.1(±89.8)</t>
+          <t>348.5(±146.8)</t>
         </is>
       </c>
     </row>
@@ -5439,271 +5439,271 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Vidin</t>
+          <t>Yambol</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>2020</v>
       </c>
       <c r="D55" t="n">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="E55" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F55" t="n">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G55" t="n">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="H55" t="n">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="I55" t="n">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="J55" t="n">
-        <v>102</v>
+        <v>123.4</v>
       </c>
       <c r="K55" t="n">
-        <v>13.9</v>
+        <v>6.7</v>
       </c>
       <c r="L55" t="n">
         <v>1.96</v>
       </c>
       <c r="M55" t="n">
-        <v>12.2</v>
+        <v>5.9</v>
       </c>
       <c r="N55" t="n">
-        <v>89.8</v>
+        <v>117.5</v>
       </c>
       <c r="O55" t="n">
-        <v>114.2</v>
+        <v>129.3</v>
       </c>
       <c r="P55" t="n">
-        <v>13</v>
+        <v>15.6</v>
       </c>
       <c r="Q55" t="n">
-        <v>12.2</v>
+        <v>5.9</v>
       </c>
       <c r="R55" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S55" t="n">
-        <v>12</v>
+        <v>5.1</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>102.0 (±12.2)</t>
+          <t>123.4 (±5.9)</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>13.0 (±12.2)</t>
+          <t>15.6 (±5.9)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>12.7% (±12.0%)</t>
+          <t>12.6% (±5.1%)</t>
         </is>
       </c>
       <c r="W55" t="n">
-        <v>3094</v>
+        <v>4065</v>
       </c>
       <c r="X55" t="n">
-        <v>420.2</v>
+        <v>383.8</v>
       </c>
       <c r="Y55" t="n">
-        <v>394.3</v>
+        <v>145.1</v>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>420.2(±394.3)</t>
+          <t>383.8(±145.1)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Vratsa</t>
+          <t>Blagoevgrad</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>2020</v>
       </c>
       <c r="D56" t="n">
-        <v>203</v>
+        <v>444</v>
       </c>
       <c r="E56" t="n">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="F56" t="n">
-        <v>188</v>
+        <v>308</v>
       </c>
       <c r="G56" t="n">
-        <v>192</v>
+        <v>315</v>
       </c>
       <c r="H56" t="n">
-        <v>171</v>
+        <v>368</v>
       </c>
       <c r="I56" t="n">
-        <v>174</v>
+        <v>304</v>
       </c>
       <c r="J56" t="n">
-        <v>185.2</v>
+        <v>330.2</v>
       </c>
       <c r="K56" t="n">
-        <v>8.6</v>
+        <v>24.4</v>
       </c>
       <c r="L56" t="n">
         <v>1.96</v>
       </c>
       <c r="M56" t="n">
-        <v>7.5</v>
+        <v>21.4</v>
       </c>
       <c r="N56" t="n">
-        <v>177.7</v>
+        <v>308.8000000000001</v>
       </c>
       <c r="O56" t="n">
-        <v>192.7</v>
+        <v>351.6</v>
       </c>
       <c r="P56" t="n">
-        <v>17.8</v>
+        <v>113.8</v>
       </c>
       <c r="Q56" t="n">
-        <v>7.5</v>
+        <v>21.4</v>
       </c>
       <c r="R56" t="n">
-        <v>9.6</v>
+        <v>34.5</v>
       </c>
       <c r="S56" t="n">
-        <v>4.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>185.2 (±7.5)</t>
+          <t>330.2 (±21.4)</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>17.8 (±7.5)</t>
+          <t>113.8 (±21.4)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>9.6% (±4.3%)</t>
+          <t>34.5% (±8.2%)</t>
         </is>
       </c>
       <c r="W56" t="n">
-        <v>5292</v>
+        <v>19409</v>
       </c>
       <c r="X56" t="n">
-        <v>336.4</v>
+        <v>586.3</v>
       </c>
       <c r="Y56" t="n">
-        <v>141.7</v>
+        <v>110.3</v>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>336.4(±141.7)</t>
+          <t>586.3(±110.3)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Yambol</t>
+          <t>Burgas</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>2020</v>
       </c>
       <c r="D57" t="n">
-        <v>139</v>
+        <v>549</v>
       </c>
       <c r="E57" t="n">
-        <v>126</v>
+        <v>495</v>
       </c>
       <c r="F57" t="n">
-        <v>111</v>
+        <v>486</v>
       </c>
       <c r="G57" t="n">
-        <v>131</v>
+        <v>505</v>
       </c>
       <c r="H57" t="n">
-        <v>119</v>
+        <v>487</v>
       </c>
       <c r="I57" t="n">
-        <v>122</v>
+        <v>470</v>
       </c>
       <c r="J57" t="n">
-        <v>123.4</v>
+        <v>494.2</v>
       </c>
       <c r="K57" t="n">
-        <v>6.7</v>
+        <v>11.5</v>
       </c>
       <c r="L57" t="n">
         <v>1.96</v>
       </c>
       <c r="M57" t="n">
-        <v>5.9</v>
+        <v>10.1</v>
       </c>
       <c r="N57" t="n">
-        <v>117.5</v>
+        <v>484.1</v>
       </c>
       <c r="O57" t="n">
-        <v>129.3</v>
+        <v>504.3000000000001</v>
       </c>
       <c r="P57" t="n">
-        <v>15.6</v>
+        <v>54.8</v>
       </c>
       <c r="Q57" t="n">
-        <v>5.9</v>
+        <v>10.1</v>
       </c>
       <c r="R57" t="n">
-        <v>12.6</v>
+        <v>11.1</v>
       </c>
       <c r="S57" t="n">
-        <v>5.1</v>
+        <v>2.2</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>123.4 (±5.9)</t>
+          <t>494.2 (±10.1)</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>15.6 (±5.9)</t>
+          <t>54.8 (±10.1)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>12.6% (±5.1%)</t>
+          <t>11.1% (±2.2%)</t>
         </is>
       </c>
       <c r="W57" t="n">
-        <v>4153</v>
+        <v>26855</v>
       </c>
       <c r="X57" t="n">
-        <v>375.6</v>
+        <v>204.1</v>
       </c>
       <c r="Y57" t="n">
-        <v>142.1</v>
+        <v>37.6</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>375.6(±142.1)</t>
+          <t>204.1(±37.6)</t>
         </is>
       </c>
     </row>
@@ -5715,87 +5715,87 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Blagoevgrad</t>
+          <t>Dobrich</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>2020</v>
       </c>
       <c r="D58" t="n">
-        <v>444</v>
+        <v>309</v>
       </c>
       <c r="E58" t="n">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F58" t="n">
         <v>308</v>
       </c>
       <c r="G58" t="n">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="H58" t="n">
-        <v>368</v>
+        <v>291</v>
       </c>
       <c r="I58" t="n">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="J58" t="n">
-        <v>330.2</v>
+        <v>296.2</v>
       </c>
       <c r="K58" t="n">
-        <v>24.4</v>
+        <v>12.1</v>
       </c>
       <c r="L58" t="n">
         <v>1.96</v>
       </c>
       <c r="M58" t="n">
-        <v>21.4</v>
+        <v>10.6</v>
       </c>
       <c r="N58" t="n">
-        <v>308.8000000000001</v>
+        <v>285.6</v>
       </c>
       <c r="O58" t="n">
-        <v>351.6</v>
+        <v>306.8</v>
       </c>
       <c r="P58" t="n">
-        <v>113.8</v>
+        <v>12.8</v>
       </c>
       <c r="Q58" t="n">
-        <v>21.4</v>
+        <v>10.6</v>
       </c>
       <c r="R58" t="n">
-        <v>34.5</v>
+        <v>4.3</v>
       </c>
       <c r="S58" t="n">
-        <v>8.199999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>330.2 (±21.4)</t>
+          <t>296.2 (±10.6)</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>113.8 (±21.4)</t>
+          <t>12.8 (±10.6)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>34.5% (±8.2%)</t>
+          <t>4.3% (±3.6%)</t>
         </is>
       </c>
       <c r="W58" t="n">
-        <v>19406</v>
+        <v>12091</v>
       </c>
       <c r="X58" t="n">
-        <v>586.4</v>
+        <v>105.9</v>
       </c>
       <c r="Y58" t="n">
-        <v>110.3</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>586.4(±110.3)</t>
+          <t>105.9(±87.6)</t>
         </is>
       </c>
     </row>
@@ -5807,32 +5807,32 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Burgas</t>
+          <t>Gabrovo</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>2020</v>
       </c>
       <c r="D59" t="n">
-        <v>549</v>
+        <v>192</v>
       </c>
       <c r="E59" t="n">
-        <v>495</v>
+        <v>193</v>
       </c>
       <c r="F59" t="n">
-        <v>486</v>
+        <v>187</v>
       </c>
       <c r="G59" t="n">
-        <v>505</v>
+        <v>191</v>
       </c>
       <c r="H59" t="n">
-        <v>487</v>
+        <v>170</v>
       </c>
       <c r="I59" t="n">
-        <v>470</v>
+        <v>165</v>
       </c>
       <c r="J59" t="n">
-        <v>494.2</v>
+        <v>182.8</v>
       </c>
       <c r="K59" t="n">
         <v>11.5</v>
@@ -5844,50 +5844,50 @@
         <v>10.1</v>
       </c>
       <c r="N59" t="n">
-        <v>484.1</v>
+        <v>172.7</v>
       </c>
       <c r="O59" t="n">
-        <v>504.3000000000001</v>
+        <v>192.9</v>
       </c>
       <c r="P59" t="n">
-        <v>54.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q59" t="n">
         <v>10.1</v>
       </c>
       <c r="R59" t="n">
-        <v>11.1</v>
+        <v>5</v>
       </c>
       <c r="S59" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>494.2 (±10.1)</t>
+          <t>182.8 (±10.1)</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>54.8 (±10.1)</t>
+          <t>9.2 (±10.1)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>11.1% (±2.2%)</t>
+          <t>5.0% (±5.5%)</t>
         </is>
       </c>
       <c r="W59" t="n">
-        <v>27008</v>
+        <v>8232</v>
       </c>
       <c r="X59" t="n">
-        <v>202.9</v>
+        <v>111.8</v>
       </c>
       <c r="Y59" t="n">
-        <v>37.4</v>
+        <v>122.7</v>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>202.9(±37.4)</t>
+          <t>111.8(±122.7)</t>
         </is>
       </c>
     </row>
@@ -5899,87 +5899,87 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Dobrich</t>
+          <t>Haskovo</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>2020</v>
       </c>
       <c r="D60" t="n">
-        <v>309</v>
+        <v>389</v>
       </c>
       <c r="E60" t="n">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="F60" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G60" t="n">
-        <v>280</v>
+        <v>341</v>
       </c>
       <c r="H60" t="n">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="I60" t="n">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="J60" t="n">
-        <v>296.2</v>
+        <v>329.8</v>
       </c>
       <c r="K60" t="n">
-        <v>12.1</v>
+        <v>17.8</v>
       </c>
       <c r="L60" t="n">
         <v>1.96</v>
       </c>
       <c r="M60" t="n">
-        <v>10.6</v>
+        <v>15.6</v>
       </c>
       <c r="N60" t="n">
-        <v>285.6</v>
+        <v>314.2</v>
       </c>
       <c r="O60" t="n">
-        <v>306.8</v>
+        <v>345.4</v>
       </c>
       <c r="P60" t="n">
-        <v>12.8</v>
+        <v>59.2</v>
       </c>
       <c r="Q60" t="n">
-        <v>10.6</v>
+        <v>15.6</v>
       </c>
       <c r="R60" t="n">
-        <v>4.3</v>
+        <v>18</v>
       </c>
       <c r="S60" t="n">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>296.2 (±10.6)</t>
+          <t>329.8 (±15.6)</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>12.8 (±10.6)</t>
+          <t>59.2 (±15.6)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>4.3% (±3.6%)</t>
+          <t>18.0% (±5.4%)</t>
         </is>
       </c>
       <c r="W60" t="n">
-        <v>12503</v>
+        <v>15785</v>
       </c>
       <c r="X60" t="n">
-        <v>102.4</v>
+        <v>375</v>
       </c>
       <c r="Y60" t="n">
-        <v>84.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>102.4(±84.8)</t>
+          <t>375.0(±98.9)</t>
         </is>
       </c>
     </row>
@@ -5991,87 +5991,87 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Gabrovo</t>
+          <t>Kardzhali</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>2020</v>
       </c>
       <c r="D61" t="n">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="E61" t="n">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="F61" t="n">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="G61" t="n">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="H61" t="n">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="I61" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J61" t="n">
-        <v>182.8</v>
+        <v>154.6</v>
       </c>
       <c r="K61" t="n">
-        <v>11.5</v>
+        <v>6.6</v>
       </c>
       <c r="L61" t="n">
         <v>1.96</v>
       </c>
       <c r="M61" t="n">
-        <v>10.1</v>
+        <v>5.8</v>
       </c>
       <c r="N61" t="n">
-        <v>172.7</v>
+        <v>148.8</v>
       </c>
       <c r="O61" t="n">
-        <v>192.9</v>
+        <v>160.4</v>
       </c>
       <c r="P61" t="n">
-        <v>9.199999999999999</v>
+        <v>58.4</v>
       </c>
       <c r="Q61" t="n">
-        <v>10.1</v>
+        <v>5.8</v>
       </c>
       <c r="R61" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="S61" t="n">
         <v>5</v>
       </c>
-      <c r="S61" t="n">
-        <v>5.5</v>
-      </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>182.8 (±10.1)</t>
+          <t>154.6 (±5.8)</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>9.2 (±10.1)</t>
+          <t>58.4 (±5.8)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>5.0% (±5.5%)</t>
+          <t>37.8% (±5.0%)</t>
         </is>
       </c>
       <c r="W61" t="n">
-        <v>8592</v>
+        <v>11983</v>
       </c>
       <c r="X61" t="n">
-        <v>107.1</v>
+        <v>487.4</v>
       </c>
       <c r="Y61" t="n">
-        <v>117.5</v>
+        <v>48.4</v>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>107.1(±117.5)</t>
+          <t>487.4(±48.4)</t>
         </is>
       </c>
     </row>
@@ -6083,87 +6083,87 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Haskovo</t>
+          <t>Kyustendil</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>2020</v>
       </c>
       <c r="D62" t="n">
-        <v>389</v>
+        <v>252</v>
       </c>
       <c r="E62" t="n">
-        <v>342</v>
+        <v>202</v>
       </c>
       <c r="F62" t="n">
-        <v>307</v>
+        <v>217</v>
       </c>
       <c r="G62" t="n">
-        <v>341</v>
+        <v>208</v>
       </c>
       <c r="H62" t="n">
-        <v>298</v>
+        <v>195</v>
       </c>
       <c r="I62" t="n">
-        <v>317</v>
+        <v>193</v>
       </c>
       <c r="J62" t="n">
-        <v>329.8</v>
+        <v>206.2</v>
       </c>
       <c r="K62" t="n">
-        <v>17.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L62" t="n">
         <v>1.96</v>
       </c>
       <c r="M62" t="n">
-        <v>15.6</v>
+        <v>7.7</v>
       </c>
       <c r="N62" t="n">
-        <v>314.2</v>
+        <v>198.5000000000001</v>
       </c>
       <c r="O62" t="n">
-        <v>345.4</v>
+        <v>213.9</v>
       </c>
       <c r="P62" t="n">
-        <v>59.2</v>
+        <v>45.8</v>
       </c>
       <c r="Q62" t="n">
-        <v>15.6</v>
+        <v>7.7</v>
       </c>
       <c r="R62" t="n">
-        <v>18</v>
+        <v>22.2</v>
       </c>
       <c r="S62" t="n">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>329.8 (±15.6)</t>
+          <t>206.2 (±7.7)</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>59.2 (±15.6)</t>
+          <t>45.8 (±7.7)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>18.0% (±5.4%)</t>
+          <t>22.2% (±4.4%)</t>
         </is>
       </c>
       <c r="W62" t="n">
-        <v>16063</v>
+        <v>9094</v>
       </c>
       <c r="X62" t="n">
-        <v>368.5</v>
+        <v>503.6</v>
       </c>
       <c r="Y62" t="n">
-        <v>97.2</v>
+        <v>84.7</v>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>368.5(±97.2)</t>
+          <t>503.6(±84.7)</t>
         </is>
       </c>
     </row>
@@ -6175,87 +6175,87 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Kardzhali</t>
+          <t>Lovech</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>2020</v>
       </c>
       <c r="D63" t="n">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="E63" t="n">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="F63" t="n">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="G63" t="n">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="H63" t="n">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="I63" t="n">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="J63" t="n">
-        <v>154.6</v>
+        <v>199.8000000000001</v>
       </c>
       <c r="K63" t="n">
-        <v>6.6</v>
+        <v>14</v>
       </c>
       <c r="L63" t="n">
         <v>1.96</v>
       </c>
       <c r="M63" t="n">
-        <v>5.8</v>
+        <v>12.3</v>
       </c>
       <c r="N63" t="n">
-        <v>148.8</v>
+        <v>187.5000000000001</v>
       </c>
       <c r="O63" t="n">
-        <v>160.4</v>
+        <v>212.1000000000001</v>
       </c>
       <c r="P63" t="n">
-        <v>58.4</v>
+        <v>-3.8</v>
       </c>
       <c r="Q63" t="n">
-        <v>5.8</v>
+        <v>12.3</v>
       </c>
       <c r="R63" t="n">
-        <v>37.8</v>
+        <v>-1.9</v>
       </c>
       <c r="S63" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>154.6 (±5.8)</t>
+          <t>199.8 (±12.3)</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>58.4 (±5.8)</t>
+          <t>-3.8 (±12.3)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>37.8% (±5.0%)</t>
+          <t>-1.9% (±5.7%)</t>
         </is>
       </c>
       <c r="W63" t="n">
-        <v>11623</v>
+        <v>8736</v>
       </c>
       <c r="X63" t="n">
-        <v>502.5</v>
+        <v>-43.5</v>
       </c>
       <c r="Y63" t="n">
-        <v>49.9</v>
+        <v>140.8</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>502.5(±49.9)</t>
+          <t>-43.5(±140.8)</t>
         </is>
       </c>
     </row>
@@ -6267,87 +6267,87 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Kyustendil</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>2020</v>
       </c>
       <c r="D64" t="n">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="E64" t="n">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="F64" t="n">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="G64" t="n">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="H64" t="n">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="I64" t="n">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="J64" t="n">
-        <v>206.2</v>
+        <v>234.6</v>
       </c>
       <c r="K64" t="n">
-        <v>8.800000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="L64" t="n">
         <v>1.96</v>
       </c>
       <c r="M64" t="n">
-        <v>7.7</v>
+        <v>10.8</v>
       </c>
       <c r="N64" t="n">
-        <v>198.5000000000001</v>
+        <v>223.8</v>
       </c>
       <c r="O64" t="n">
-        <v>213.9</v>
+        <v>245.4</v>
       </c>
       <c r="P64" t="n">
-        <v>45.8</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="Q64" t="n">
-        <v>7.7</v>
+        <v>10.8</v>
       </c>
       <c r="R64" t="n">
-        <v>22.2</v>
+        <v>28.3</v>
       </c>
       <c r="S64" t="n">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>206.2 (±7.7)</t>
+          <t>234.6 (±10.8)</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>45.8 (±7.7)</t>
+          <t>66.4 (±10.8)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>22.2% (±4.4%)</t>
+          <t>28.3% (±5.6%)</t>
         </is>
       </c>
       <c r="W64" t="n">
-        <v>9373</v>
+        <v>9266</v>
       </c>
       <c r="X64" t="n">
-        <v>488.6</v>
+        <v>716.6</v>
       </c>
       <c r="Y64" t="n">
-        <v>82.2</v>
+        <v>116.6</v>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>488.6(±82.2)</t>
+          <t>716.6(±116.6)</t>
         </is>
       </c>
     </row>
@@ -6359,87 +6359,87 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Lovech</t>
+          <t>Pazardzhik</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>2020</v>
       </c>
       <c r="D65" t="n">
-        <v>196</v>
+        <v>437</v>
       </c>
       <c r="E65" t="n">
-        <v>214</v>
+        <v>371</v>
       </c>
       <c r="F65" t="n">
-        <v>190</v>
+        <v>336</v>
       </c>
       <c r="G65" t="n">
-        <v>183</v>
+        <v>321</v>
       </c>
       <c r="H65" t="n">
-        <v>209</v>
+        <v>324</v>
       </c>
       <c r="I65" t="n">
-        <v>179</v>
+        <v>328</v>
       </c>
       <c r="J65" t="n">
-        <v>199.8000000000001</v>
+        <v>343.9999999999999</v>
       </c>
       <c r="K65" t="n">
-        <v>14</v>
+        <v>18.2</v>
       </c>
       <c r="L65" t="n">
         <v>1.96</v>
       </c>
       <c r="M65" t="n">
-        <v>12.3</v>
+        <v>16</v>
       </c>
       <c r="N65" t="n">
-        <v>187.5000000000001</v>
+        <v>327.9999999999999</v>
       </c>
       <c r="O65" t="n">
-        <v>212.1000000000001</v>
+        <v>359.9999999999999</v>
       </c>
       <c r="P65" t="n">
-        <v>-3.8</v>
+        <v>93</v>
       </c>
       <c r="Q65" t="n">
-        <v>12.3</v>
+        <v>16</v>
       </c>
       <c r="R65" t="n">
-        <v>-1.9</v>
+        <v>27</v>
       </c>
       <c r="S65" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>199.8 (±12.3)</t>
+          <t>344.0 (±16.0)</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>-3.8 (±12.3)</t>
+          <t>93.0 (±16.0)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>-1.9% (±5.7%)</t>
+          <t>27.0% (±5.6%)</t>
         </is>
       </c>
       <c r="W65" t="n">
-        <v>8995</v>
+        <v>16043</v>
       </c>
       <c r="X65" t="n">
-        <v>-42.2</v>
+        <v>579.7</v>
       </c>
       <c r="Y65" t="n">
-        <v>136.7</v>
+        <v>99.7</v>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>-42.2(±136.7)</t>
+          <t>579.7(±99.7)</t>
         </is>
       </c>
     </row>
@@ -6451,87 +6451,87 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Pernik</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>2020</v>
       </c>
       <c r="D66" t="n">
-        <v>301</v>
+        <v>222</v>
       </c>
       <c r="E66" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F66" t="n">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="G66" t="n">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="H66" t="n">
-        <v>240</v>
+        <v>175</v>
       </c>
       <c r="I66" t="n">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="J66" t="n">
-        <v>234.6</v>
+        <v>195.8</v>
       </c>
       <c r="K66" t="n">
-        <v>12.3</v>
+        <v>10.5</v>
       </c>
       <c r="L66" t="n">
         <v>1.96</v>
       </c>
       <c r="M66" t="n">
-        <v>10.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="N66" t="n">
-        <v>223.8</v>
+        <v>186.6</v>
       </c>
       <c r="O66" t="n">
-        <v>245.4</v>
+        <v>205</v>
       </c>
       <c r="P66" t="n">
-        <v>66.40000000000001</v>
+        <v>26.2</v>
       </c>
       <c r="Q66" t="n">
-        <v>10.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="R66" t="n">
-        <v>28.3</v>
+        <v>13.4</v>
       </c>
       <c r="S66" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>234.6 (±10.8)</t>
+          <t>195.8 (±9.2)</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>66.4 (±10.8)</t>
+          <t>26.2 (±9.2)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>28.3% (±5.6%)</t>
+          <t>13.4% (±5.1%)</t>
         </is>
       </c>
       <c r="W66" t="n">
-        <v>9729</v>
+        <v>8537</v>
       </c>
       <c r="X66" t="n">
-        <v>682.5</v>
+        <v>306.9</v>
       </c>
       <c r="Y66" t="n">
-        <v>111</v>
+        <v>107.8</v>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>682.5(±111.0)</t>
+          <t>306.9(±107.8)</t>
         </is>
       </c>
     </row>
@@ -6543,87 +6543,87 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Pazardzhik</t>
+          <t>Pleven</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>2020</v>
       </c>
       <c r="D67" t="n">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="E67" t="n">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="F67" t="n">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G67" t="n">
-        <v>321</v>
+        <v>397</v>
       </c>
       <c r="H67" t="n">
-        <v>324</v>
+        <v>397</v>
       </c>
       <c r="I67" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="J67" t="n">
-        <v>343.9999999999999</v>
+        <v>382.6</v>
       </c>
       <c r="K67" t="n">
-        <v>18.2</v>
+        <v>29.9</v>
       </c>
       <c r="L67" t="n">
         <v>1.96</v>
       </c>
       <c r="M67" t="n">
-        <v>16</v>
+        <v>26.2</v>
       </c>
       <c r="N67" t="n">
-        <v>327.9999999999999</v>
+        <v>356.4</v>
       </c>
       <c r="O67" t="n">
-        <v>359.9999999999999</v>
+        <v>408.8</v>
       </c>
       <c r="P67" t="n">
-        <v>93</v>
+        <v>36.4</v>
       </c>
       <c r="Q67" t="n">
-        <v>16</v>
+        <v>26.2</v>
       </c>
       <c r="R67" t="n">
-        <v>27</v>
+        <v>9.5</v>
       </c>
       <c r="S67" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>344.0 (±16.0)</t>
+          <t>382.6 (±26.2)</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>93.0 (±16.0)</t>
+          <t>36.4 (±26.2)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>27.0% (±5.6%)</t>
+          <t>9.5% (±7.0%)</t>
         </is>
       </c>
       <c r="W67" t="n">
-        <v>16177</v>
+        <v>16911</v>
       </c>
       <c r="X67" t="n">
-        <v>574.9</v>
+        <v>215.2</v>
       </c>
       <c r="Y67" t="n">
-        <v>98.90000000000001</v>
+        <v>155</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>574.9(±98.9)</t>
+          <t>215.2(±155.0)</t>
         </is>
       </c>
     </row>
@@ -6635,87 +6635,87 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Pernik</t>
+          <t>Plovdiv</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>2020</v>
       </c>
       <c r="D68" t="n">
-        <v>221</v>
+        <v>960</v>
       </c>
       <c r="E68" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="F68" t="n">
-        <v>202</v>
+        <v>784</v>
       </c>
       <c r="G68" t="n">
-        <v>198</v>
+        <v>806</v>
       </c>
       <c r="H68" t="n">
-        <v>175</v>
+        <v>726</v>
       </c>
       <c r="I68" t="n">
-        <v>184</v>
+        <v>737</v>
       </c>
       <c r="J68" t="n">
-        <v>195.8</v>
+        <v>775.0000000000001</v>
       </c>
       <c r="K68" t="n">
-        <v>10.5</v>
+        <v>29.9</v>
       </c>
       <c r="L68" t="n">
         <v>1.96</v>
       </c>
       <c r="M68" t="n">
-        <v>9.199999999999999</v>
+        <v>26.2</v>
       </c>
       <c r="N68" t="n">
-        <v>186.6</v>
+        <v>748.8000000000001</v>
       </c>
       <c r="O68" t="n">
-        <v>205</v>
+        <v>801.2000000000002</v>
       </c>
       <c r="P68" t="n">
-        <v>25.2</v>
+        <v>185</v>
       </c>
       <c r="Q68" t="n">
-        <v>9.199999999999999</v>
+        <v>26.2</v>
       </c>
       <c r="R68" t="n">
-        <v>12.9</v>
+        <v>23.9</v>
       </c>
       <c r="S68" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>195.8 (±9.2)</t>
+          <t>775.0 (±26.2)</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>25.2 (±9.2)</t>
+          <t>185.0 (±26.2)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>12.9% (±5.1%)</t>
+          <t>23.9% (±4.1%)</t>
         </is>
       </c>
       <c r="W68" t="n">
-        <v>8708</v>
+        <v>39838</v>
       </c>
       <c r="X68" t="n">
-        <v>289.4</v>
+        <v>464.4</v>
       </c>
       <c r="Y68" t="n">
-        <v>105.6</v>
+        <v>65.7</v>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>289.4(±105.6)</t>
+          <t>464.4(±65.7)</t>
         </is>
       </c>
     </row>
@@ -6727,87 +6727,87 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Pleven</t>
+          <t>Razgrad</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>2020</v>
       </c>
       <c r="D69" t="n">
-        <v>419</v>
+        <v>235</v>
       </c>
       <c r="E69" t="n">
-        <v>398</v>
+        <v>184</v>
       </c>
       <c r="F69" t="n">
-        <v>341</v>
+        <v>194</v>
       </c>
       <c r="G69" t="n">
-        <v>397</v>
+        <v>158</v>
       </c>
       <c r="H69" t="n">
-        <v>397</v>
+        <v>174</v>
       </c>
       <c r="I69" t="n">
-        <v>332</v>
+        <v>201</v>
       </c>
       <c r="J69" t="n">
-        <v>382.6</v>
+        <v>184.6</v>
       </c>
       <c r="K69" t="n">
-        <v>29.9</v>
+        <v>15.2</v>
       </c>
       <c r="L69" t="n">
         <v>1.96</v>
       </c>
       <c r="M69" t="n">
-        <v>26.2</v>
+        <v>13.3</v>
       </c>
       <c r="N69" t="n">
-        <v>356.4</v>
+        <v>171.3</v>
       </c>
       <c r="O69" t="n">
-        <v>408.8</v>
+        <v>197.9</v>
       </c>
       <c r="P69" t="n">
-        <v>36.4</v>
+        <v>50.4</v>
       </c>
       <c r="Q69" t="n">
-        <v>26.2</v>
+        <v>13.3</v>
       </c>
       <c r="R69" t="n">
-        <v>9.5</v>
+        <v>27.3</v>
       </c>
       <c r="S69" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>382.6 (±26.2)</t>
+          <t>184.6 (±13.3)</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>36.4 (±26.2)</t>
+          <t>50.4 (±13.3)</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>9.5% (±7.0%)</t>
+          <t>27.3% (±8.6%)</t>
         </is>
       </c>
       <c r="W69" t="n">
-        <v>17663</v>
+        <v>7863</v>
       </c>
       <c r="X69" t="n">
-        <v>206.1</v>
+        <v>641</v>
       </c>
       <c r="Y69" t="n">
-        <v>148.3</v>
+        <v>169.1</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>206.1(±148.3)</t>
+          <t>641.0(±169.1)</t>
         </is>
       </c>
     </row>
@@ -6819,87 +6819,87 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Plovdiv</t>
+          <t>Ruse</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>2020</v>
       </c>
       <c r="D70" t="n">
-        <v>960</v>
+        <v>357</v>
       </c>
       <c r="E70" t="n">
-        <v>750</v>
+        <v>316</v>
       </c>
       <c r="F70" t="n">
-        <v>784</v>
+        <v>303</v>
       </c>
       <c r="G70" t="n">
-        <v>806</v>
+        <v>272</v>
       </c>
       <c r="H70" t="n">
-        <v>726</v>
+        <v>349</v>
       </c>
       <c r="I70" t="n">
-        <v>737</v>
+        <v>298</v>
       </c>
       <c r="J70" t="n">
-        <v>775.0000000000001</v>
+        <v>313.2</v>
       </c>
       <c r="K70" t="n">
-        <v>29.9</v>
+        <v>25.2</v>
       </c>
       <c r="L70" t="n">
         <v>1.96</v>
       </c>
       <c r="M70" t="n">
-        <v>26.2</v>
+        <v>22.1</v>
       </c>
       <c r="N70" t="n">
-        <v>748.8000000000001</v>
+        <v>291.1</v>
       </c>
       <c r="O70" t="n">
-        <v>801.2000000000002</v>
+        <v>335.3</v>
       </c>
       <c r="P70" t="n">
-        <v>185</v>
+        <v>43.8</v>
       </c>
       <c r="Q70" t="n">
-        <v>26.2</v>
+        <v>22.1</v>
       </c>
       <c r="R70" t="n">
-        <v>23.9</v>
+        <v>14</v>
       </c>
       <c r="S70" t="n">
-        <v>4.1</v>
+        <v>7.5</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>775.0 (±26.2)</t>
+          <t>313.2 (±22.1)</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>185.0 (±26.2)</t>
+          <t>43.8 (±22.1)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>23.9% (±4.1%)</t>
+          <t>14.0% (±7.5%)</t>
         </is>
       </c>
       <c r="W70" t="n">
-        <v>40966</v>
+        <v>14767</v>
       </c>
       <c r="X70" t="n">
-        <v>451.6</v>
+        <v>296.6</v>
       </c>
       <c r="Y70" t="n">
-        <v>63.9</v>
+        <v>149.7</v>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>451.6(±63.9)</t>
+          <t>296.6(±149.7)</t>
         </is>
       </c>
     </row>
@@ -6911,87 +6911,87 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Razgrad</t>
+          <t>Shumen</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>2020</v>
       </c>
       <c r="D71" t="n">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="E71" t="n">
-        <v>184</v>
+        <v>265</v>
       </c>
       <c r="F71" t="n">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="G71" t="n">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="H71" t="n">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="I71" t="n">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="J71" t="n">
-        <v>184.6</v>
+        <v>246.6</v>
       </c>
       <c r="K71" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="L71" t="n">
         <v>1.96</v>
       </c>
       <c r="M71" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="N71" t="n">
-        <v>171.3</v>
+        <v>233.1</v>
       </c>
       <c r="O71" t="n">
-        <v>197.9</v>
+        <v>260.1</v>
       </c>
       <c r="P71" t="n">
-        <v>50.4</v>
+        <v>47.4</v>
       </c>
       <c r="Q71" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="R71" t="n">
-        <v>27.3</v>
+        <v>19.2</v>
       </c>
       <c r="S71" t="n">
-        <v>8.6</v>
+        <v>6.2</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>184.6 (±13.3)</t>
+          <t>246.6 (±13.5)</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>50.4 (±13.3)</t>
+          <t>47.4 (±13.5)</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>27.3% (±8.6%)</t>
+          <t>19.2% (±6.2%)</t>
         </is>
       </c>
       <c r="W71" t="n">
-        <v>7829</v>
+        <v>12099</v>
       </c>
       <c r="X71" t="n">
-        <v>643.8</v>
+        <v>391.8</v>
       </c>
       <c r="Y71" t="n">
-        <v>169.8</v>
+        <v>111.5</v>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>643.8(±169.8)</t>
+          <t>391.8(±111.5)</t>
         </is>
       </c>
     </row>
@@ -7003,87 +7003,87 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ruse</t>
+          <t>Silistra</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>2020</v>
       </c>
       <c r="D72" t="n">
-        <v>357</v>
+        <v>215</v>
       </c>
       <c r="E72" t="n">
-        <v>316</v>
+        <v>192</v>
       </c>
       <c r="F72" t="n">
-        <v>303</v>
+        <v>161</v>
       </c>
       <c r="G72" t="n">
-        <v>272</v>
+        <v>181</v>
       </c>
       <c r="H72" t="n">
-        <v>349</v>
+        <v>163</v>
       </c>
       <c r="I72" t="n">
-        <v>298</v>
+        <v>160</v>
       </c>
       <c r="J72" t="n">
-        <v>313.2</v>
+        <v>174.6</v>
       </c>
       <c r="K72" t="n">
-        <v>25.2</v>
+        <v>12.8</v>
       </c>
       <c r="L72" t="n">
         <v>1.96</v>
       </c>
       <c r="M72" t="n">
-        <v>22.1</v>
+        <v>11.2</v>
       </c>
       <c r="N72" t="n">
-        <v>291.1</v>
+        <v>163.4</v>
       </c>
       <c r="O72" t="n">
-        <v>335.3</v>
+        <v>185.8</v>
       </c>
       <c r="P72" t="n">
-        <v>43.8</v>
+        <v>40.4</v>
       </c>
       <c r="Q72" t="n">
-        <v>22.1</v>
+        <v>11.2</v>
       </c>
       <c r="R72" t="n">
-        <v>14</v>
+        <v>23.1</v>
       </c>
       <c r="S72" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>313.2 (±22.1)</t>
+          <t>174.6 (±11.2)</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>43.8 (±22.1)</t>
+          <t>40.4 (±11.2)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>14.0% (±7.5%)</t>
+          <t>23.1% (±7.4%)</t>
         </is>
       </c>
       <c r="W72" t="n">
-        <v>15260</v>
+        <v>7905</v>
       </c>
       <c r="X72" t="n">
-        <v>287</v>
+        <v>511.1</v>
       </c>
       <c r="Y72" t="n">
-        <v>144.8</v>
+        <v>141.7</v>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>287.0(±144.8)</t>
+          <t>511.1(±141.7)</t>
         </is>
       </c>
     </row>
@@ -7095,87 +7095,87 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Shumen</t>
+          <t>Sliven</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>2020</v>
       </c>
       <c r="D73" t="n">
-        <v>294</v>
+        <v>345</v>
       </c>
       <c r="E73" t="n">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="F73" t="n">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="G73" t="n">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="H73" t="n">
-        <v>224</v>
+        <v>281</v>
       </c>
       <c r="I73" t="n">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="J73" t="n">
-        <v>246.6</v>
+        <v>253.0000000000001</v>
       </c>
       <c r="K73" t="n">
-        <v>15.4</v>
+        <v>20.1</v>
       </c>
       <c r="L73" t="n">
         <v>1.96</v>
       </c>
       <c r="M73" t="n">
-        <v>13.5</v>
+        <v>17.6</v>
       </c>
       <c r="N73" t="n">
-        <v>233.1</v>
+        <v>235.4000000000001</v>
       </c>
       <c r="O73" t="n">
-        <v>260.1</v>
+        <v>270.6000000000001</v>
       </c>
       <c r="P73" t="n">
-        <v>47.4</v>
+        <v>92</v>
       </c>
       <c r="Q73" t="n">
-        <v>13.5</v>
+        <v>17.6</v>
       </c>
       <c r="R73" t="n">
-        <v>19.2</v>
+        <v>36.4</v>
       </c>
       <c r="S73" t="n">
-        <v>6.2</v>
+        <v>8.9</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>246.6 (±13.5)</t>
+          <t>253.0 (±17.6)</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>47.4 (±13.5)</t>
+          <t>92.0 (±17.6)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>19.2% (±6.2%)</t>
+          <t>36.4% (±8.9%)</t>
         </is>
       </c>
       <c r="W73" t="n">
-        <v>12431</v>
+        <v>11599</v>
       </c>
       <c r="X73" t="n">
-        <v>381.3</v>
+        <v>793.2</v>
       </c>
       <c r="Y73" t="n">
-        <v>108.6</v>
+        <v>151.7</v>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>381.3(±108.6)</t>
+          <t>793.2(±151.7)</t>
         </is>
       </c>
     </row>
@@ -7187,87 +7187,87 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Silistra</t>
+          <t>Smolyan</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>2020</v>
       </c>
       <c r="D74" t="n">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="E74" t="n">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="F74" t="n">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G74" t="n">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="H74" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I74" t="n">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="J74" t="n">
-        <v>174.6</v>
+        <v>145.4</v>
       </c>
       <c r="K74" t="n">
-        <v>12.8</v>
+        <v>13.2</v>
       </c>
       <c r="L74" t="n">
         <v>1.96</v>
       </c>
       <c r="M74" t="n">
-        <v>11.2</v>
+        <v>11.6</v>
       </c>
       <c r="N74" t="n">
-        <v>163.4</v>
+        <v>133.8</v>
       </c>
       <c r="O74" t="n">
-        <v>185.8</v>
+        <v>157</v>
       </c>
       <c r="P74" t="n">
-        <v>40.4</v>
+        <v>37.6</v>
       </c>
       <c r="Q74" t="n">
-        <v>11.2</v>
+        <v>11.6</v>
       </c>
       <c r="R74" t="n">
-        <v>23.1</v>
+        <v>25.9</v>
       </c>
       <c r="S74" t="n">
-        <v>7.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>174.6 (±11.2)</t>
+          <t>145.4 (±11.6)</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>40.4 (±11.2)</t>
+          <t>37.6 (±11.6)</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>23.1% (±7.4%)</t>
+          <t>25.9% (±9.3%)</t>
         </is>
       </c>
       <c r="W74" t="n">
-        <v>8197</v>
+        <v>8583</v>
       </c>
       <c r="X74" t="n">
-        <v>492.9</v>
+        <v>438.1</v>
       </c>
       <c r="Y74" t="n">
-        <v>136.6</v>
+        <v>135.1</v>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>492.9(±136.6)</t>
+          <t>438.1(±135.1)</t>
         </is>
       </c>
     </row>
@@ -7279,87 +7279,87 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sliven</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>2020</v>
       </c>
       <c r="D75" t="n">
-        <v>345</v>
+        <v>463</v>
       </c>
       <c r="E75" t="n">
-        <v>254</v>
+        <v>372</v>
       </c>
       <c r="F75" t="n">
-        <v>256</v>
+        <v>363</v>
       </c>
       <c r="G75" t="n">
-        <v>237</v>
+        <v>380</v>
       </c>
       <c r="H75" t="n">
-        <v>281</v>
+        <v>340</v>
       </c>
       <c r="I75" t="n">
-        <v>221</v>
+        <v>323</v>
       </c>
       <c r="J75" t="n">
-        <v>253.0000000000001</v>
+        <v>362.7999999999999</v>
       </c>
       <c r="K75" t="n">
-        <v>20.1</v>
+        <v>21.1</v>
       </c>
       <c r="L75" t="n">
         <v>1.96</v>
       </c>
       <c r="M75" t="n">
-        <v>17.6</v>
+        <v>18.5</v>
       </c>
       <c r="N75" t="n">
-        <v>235.4000000000001</v>
+        <v>344.2999999999999</v>
       </c>
       <c r="O75" t="n">
-        <v>270.6000000000001</v>
+        <v>381.2999999999999</v>
       </c>
       <c r="P75" t="n">
-        <v>92</v>
+        <v>100.2</v>
       </c>
       <c r="Q75" t="n">
-        <v>17.6</v>
+        <v>18.5</v>
       </c>
       <c r="R75" t="n">
-        <v>36.4</v>
+        <v>27.6</v>
       </c>
       <c r="S75" t="n">
-        <v>8.9</v>
+        <v>6.2</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>253.0 (±17.6)</t>
+          <t>362.8 (±18.5)</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>92.0 (±17.6)</t>
+          <t>100.2 (±18.5)</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>36.4% (±8.9%)</t>
+          <t>27.6% (±6.2%)</t>
         </is>
       </c>
       <c r="W75" t="n">
-        <v>11965</v>
+        <v>16423</v>
       </c>
       <c r="X75" t="n">
-        <v>768.9</v>
+        <v>610.1</v>
       </c>
       <c r="Y75" t="n">
-        <v>147.1</v>
+        <v>112.7</v>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>768.9(±147.1)</t>
+          <t>610.1(±112.7)</t>
         </is>
       </c>
     </row>
@@ -7371,87 +7371,87 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Smolyan</t>
+          <t>Stara Zagora</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>2020</v>
       </c>
       <c r="D76" t="n">
-        <v>183</v>
+        <v>487</v>
       </c>
       <c r="E76" t="n">
-        <v>129</v>
+        <v>422</v>
       </c>
       <c r="F76" t="n">
-        <v>155</v>
+        <v>427</v>
       </c>
       <c r="G76" t="n">
-        <v>155</v>
+        <v>428</v>
       </c>
       <c r="H76" t="n">
-        <v>156</v>
+        <v>441</v>
       </c>
       <c r="I76" t="n">
-        <v>128</v>
+        <v>419</v>
       </c>
       <c r="J76" t="n">
-        <v>145.4</v>
+        <v>431.4</v>
       </c>
       <c r="K76" t="n">
-        <v>13.2</v>
+        <v>7.6</v>
       </c>
       <c r="L76" t="n">
         <v>1.96</v>
       </c>
       <c r="M76" t="n">
-        <v>11.6</v>
+        <v>6.7</v>
       </c>
       <c r="N76" t="n">
-        <v>133.8</v>
+        <v>424.7</v>
       </c>
       <c r="O76" t="n">
-        <v>157</v>
+        <v>438.1</v>
       </c>
       <c r="P76" t="n">
-        <v>37.6</v>
+        <v>55.6</v>
       </c>
       <c r="Q76" t="n">
-        <v>11.6</v>
+        <v>6.7</v>
       </c>
       <c r="R76" t="n">
-        <v>25.9</v>
+        <v>12.9</v>
       </c>
       <c r="S76" t="n">
-        <v>9.300000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>145.4 (±11.6)</t>
+          <t>431.4 (±6.7)</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>37.6 (±11.6)</t>
+          <t>55.6 (±6.7)</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>25.9% (±9.3%)</t>
+          <t>12.9% (±1.7%)</t>
         </is>
       </c>
       <c r="W76" t="n">
-        <v>8693</v>
+        <v>20903</v>
       </c>
       <c r="X76" t="n">
-        <v>432.5</v>
+        <v>266</v>
       </c>
       <c r="Y76" t="n">
-        <v>133.5</v>
+        <v>32</v>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>432.5(±133.5)</t>
+          <t>266.0(±32.0)</t>
         </is>
       </c>
     </row>
@@ -7463,87 +7463,87 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Targovishte</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>2020</v>
       </c>
       <c r="D77" t="n">
-        <v>463</v>
+        <v>212</v>
       </c>
       <c r="E77" t="n">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="F77" t="n">
-        <v>363</v>
+        <v>185</v>
       </c>
       <c r="G77" t="n">
-        <v>380</v>
+        <v>173</v>
       </c>
       <c r="H77" t="n">
-        <v>340</v>
+        <v>134</v>
       </c>
       <c r="I77" t="n">
-        <v>323</v>
+        <v>145</v>
       </c>
       <c r="J77" t="n">
-        <v>362.7999999999999</v>
+        <v>162.4</v>
       </c>
       <c r="K77" t="n">
-        <v>21.1</v>
+        <v>18.4</v>
       </c>
       <c r="L77" t="n">
         <v>1.96</v>
       </c>
       <c r="M77" t="n">
-        <v>18.5</v>
+        <v>16.1</v>
       </c>
       <c r="N77" t="n">
-        <v>344.2999999999999</v>
+        <v>146.3</v>
       </c>
       <c r="O77" t="n">
-        <v>381.2999999999999</v>
+        <v>178.5</v>
       </c>
       <c r="P77" t="n">
-        <v>100.2</v>
+        <v>49.6</v>
       </c>
       <c r="Q77" t="n">
-        <v>18.5</v>
+        <v>16.1</v>
       </c>
       <c r="R77" t="n">
-        <v>27.6</v>
+        <v>30.5</v>
       </c>
       <c r="S77" t="n">
-        <v>6.2</v>
+        <v>11.7</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>362.8 (±18.5)</t>
+          <t>162.4 (±16.1)</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>100.2 (±18.5)</t>
+          <t>49.6 (±16.1)</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>27.6% (±6.2%)</t>
+          <t>30.5% (±11.7%)</t>
         </is>
       </c>
       <c r="W77" t="n">
-        <v>15871</v>
+        <v>7584</v>
       </c>
       <c r="X77" t="n">
-        <v>631.3</v>
+        <v>654</v>
       </c>
       <c r="Y77" t="n">
-        <v>116.6</v>
+        <v>212.3</v>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>631.3(±116.6)</t>
+          <t>654.0(±212.3)</t>
         </is>
       </c>
     </row>
@@ -7555,87 +7555,87 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sofia (stolitsa)</t>
+          <t>Varna</t>
         </is>
       </c>
       <c r="C78" t="n">
         <v>2020</v>
       </c>
       <c r="D78" t="n">
-        <v>1545</v>
+        <v>666</v>
       </c>
       <c r="E78" t="n">
-        <v>1339</v>
+        <v>522</v>
       </c>
       <c r="F78" t="n">
-        <v>1374</v>
+        <v>499</v>
       </c>
       <c r="G78" t="n">
-        <v>1251</v>
+        <v>487</v>
       </c>
       <c r="H78" t="n">
-        <v>1299</v>
+        <v>535</v>
       </c>
       <c r="I78" t="n">
-        <v>1313</v>
+        <v>518</v>
       </c>
       <c r="J78" t="n">
-        <v>1336</v>
+        <v>520.2</v>
       </c>
       <c r="K78" t="n">
-        <v>41</v>
+        <v>17.1</v>
       </c>
       <c r="L78" t="n">
         <v>1.96</v>
       </c>
       <c r="M78" t="n">
-        <v>35.9</v>
+        <v>15</v>
       </c>
       <c r="N78" t="n">
-        <v>1300.1</v>
+        <v>505.2</v>
       </c>
       <c r="O78" t="n">
-        <v>1371.9</v>
+        <v>535.2</v>
       </c>
       <c r="P78" t="n">
-        <v>209</v>
+        <v>145.8</v>
       </c>
       <c r="Q78" t="n">
-        <v>35.9</v>
+        <v>15</v>
       </c>
       <c r="R78" t="n">
-        <v>15.6</v>
+        <v>28</v>
       </c>
       <c r="S78" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>1336.0 (±35.9)</t>
+          <t>520.2 (±15.0)</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>209.0 (±35.9)</t>
+          <t>145.8 (±15.0)</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>15.6% (±3.0%)</t>
+          <t>28.0% (±3.6%)</t>
         </is>
       </c>
       <c r="W78" t="n">
-        <v>74593</v>
+        <v>28226</v>
       </c>
       <c r="X78" t="n">
-        <v>280.2</v>
+        <v>516.5</v>
       </c>
       <c r="Y78" t="n">
-        <v>48.1</v>
+        <v>53.2</v>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>280.2(±48.1)</t>
+          <t>516.5(±53.2)</t>
         </is>
       </c>
     </row>
@@ -7647,87 +7647,87 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Stara Zagora</t>
+          <t>Veliko Tarnovo</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>2020</v>
       </c>
       <c r="D79" t="n">
-        <v>487</v>
+        <v>420</v>
       </c>
       <c r="E79" t="n">
-        <v>422</v>
+        <v>340</v>
       </c>
       <c r="F79" t="n">
-        <v>427</v>
+        <v>338</v>
       </c>
       <c r="G79" t="n">
-        <v>428</v>
+        <v>337</v>
       </c>
       <c r="H79" t="n">
-        <v>441</v>
+        <v>335</v>
       </c>
       <c r="I79" t="n">
-        <v>419</v>
+        <v>327</v>
       </c>
       <c r="J79" t="n">
-        <v>431.4</v>
+        <v>341.8</v>
       </c>
       <c r="K79" t="n">
-        <v>7.6</v>
+        <v>4.5</v>
       </c>
       <c r="L79" t="n">
         <v>1.96</v>
       </c>
       <c r="M79" t="n">
-        <v>6.7</v>
+        <v>3.9</v>
       </c>
       <c r="N79" t="n">
-        <v>424.7</v>
+        <v>337.9</v>
       </c>
       <c r="O79" t="n">
-        <v>438.1</v>
+        <v>345.7</v>
       </c>
       <c r="P79" t="n">
-        <v>55.6</v>
+        <v>78.2</v>
       </c>
       <c r="Q79" t="n">
-        <v>6.7</v>
+        <v>3.9</v>
       </c>
       <c r="R79" t="n">
-        <v>12.9</v>
+        <v>22.9</v>
       </c>
       <c r="S79" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>431.4 (±6.7)</t>
+          <t>341.8 (±3.9)</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>55.6 (±6.7)</t>
+          <t>78.2 (±3.9)</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>12.9% (±1.7%)</t>
+          <t>22.9% (±1.4%)</t>
         </is>
       </c>
       <c r="W79" t="n">
-        <v>21451</v>
+        <v>16453</v>
       </c>
       <c r="X79" t="n">
-        <v>259.2</v>
+        <v>475.3</v>
       </c>
       <c r="Y79" t="n">
-        <v>31.2</v>
+        <v>23.7</v>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>259.2(±31.2)</t>
+          <t>475.3(±23.7)</t>
         </is>
       </c>
     </row>
@@ -7739,87 +7739,87 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Targovishte</t>
+          <t>Vidin</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>2020</v>
       </c>
       <c r="D80" t="n">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="E80" t="n">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="F80" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="G80" t="n">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="H80" t="n">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I80" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J80" t="n">
-        <v>162.4</v>
+        <v>163.4</v>
       </c>
       <c r="K80" t="n">
-        <v>18.4</v>
+        <v>22</v>
       </c>
       <c r="L80" t="n">
         <v>1.96</v>
       </c>
       <c r="M80" t="n">
-        <v>16.1</v>
+        <v>19.3</v>
       </c>
       <c r="N80" t="n">
-        <v>146.3</v>
+        <v>144.1</v>
       </c>
       <c r="O80" t="n">
-        <v>178.5</v>
+        <v>182.7</v>
       </c>
       <c r="P80" t="n">
-        <v>49.6</v>
+        <v>24.6</v>
       </c>
       <c r="Q80" t="n">
-        <v>16.1</v>
+        <v>19.3</v>
       </c>
       <c r="R80" t="n">
-        <v>30.5</v>
+        <v>15.1</v>
       </c>
       <c r="S80" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>162.4 (±16.1)</t>
+          <t>163.4 (±19.3)</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>49.6 (±16.1)</t>
+          <t>24.6 (±19.3)</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>30.5% (±11.7%)</t>
+          <t>15.1% (±12.2%)</t>
         </is>
       </c>
       <c r="W80" t="n">
-        <v>7777</v>
+        <v>6495</v>
       </c>
       <c r="X80" t="n">
-        <v>637.8</v>
+        <v>378.8</v>
       </c>
       <c r="Y80" t="n">
-        <v>207</v>
+        <v>297.1</v>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>637.8(±207.0)</t>
+          <t>378.8(±297.1)</t>
         </is>
       </c>
     </row>
@@ -7831,87 +7831,87 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Varna</t>
+          <t>Vratsa</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>2020</v>
       </c>
       <c r="D81" t="n">
-        <v>665</v>
+        <v>312</v>
       </c>
       <c r="E81" t="n">
-        <v>522</v>
+        <v>302</v>
       </c>
       <c r="F81" t="n">
-        <v>499</v>
+        <v>269</v>
       </c>
       <c r="G81" t="n">
-        <v>487</v>
+        <v>289</v>
       </c>
       <c r="H81" t="n">
-        <v>535</v>
+        <v>255</v>
       </c>
       <c r="I81" t="n">
-        <v>518</v>
+        <v>253</v>
       </c>
       <c r="J81" t="n">
-        <v>520.2</v>
+        <v>279.2</v>
       </c>
       <c r="K81" t="n">
-        <v>17.1</v>
+        <v>19.2</v>
       </c>
       <c r="L81" t="n">
         <v>1.96</v>
       </c>
       <c r="M81" t="n">
-        <v>15</v>
+        <v>16.8</v>
       </c>
       <c r="N81" t="n">
-        <v>505.2</v>
+        <v>262.4</v>
       </c>
       <c r="O81" t="n">
-        <v>535.2</v>
+        <v>296.0000000000001</v>
       </c>
       <c r="P81" t="n">
-        <v>144.8</v>
+        <v>32.8</v>
       </c>
       <c r="Q81" t="n">
-        <v>15</v>
+        <v>16.8</v>
       </c>
       <c r="R81" t="n">
-        <v>27.8</v>
+        <v>11.7</v>
       </c>
       <c r="S81" t="n">
-        <v>3.5</v>
+        <v>6.3</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>520.2 (±15.0)</t>
+          <t>279.2 (±16.8)</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>144.8 (±15.0)</t>
+          <t>32.8 (±16.8)</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>27.8% (±3.5%)</t>
+          <t>11.7% (±6.3%)</t>
         </is>
       </c>
       <c r="W81" t="n">
-        <v>28784</v>
+        <v>11200</v>
       </c>
       <c r="X81" t="n">
-        <v>503.1</v>
+        <v>292.9</v>
       </c>
       <c r="Y81" t="n">
-        <v>52.1</v>
+        <v>150</v>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>503.1(±52.1)</t>
+          <t>292.9(±150.0)</t>
         </is>
       </c>
     </row>
@@ -7923,363 +7923,87 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Veliko Tarnovo</t>
+          <t>Yambol</t>
         </is>
       </c>
       <c r="C82" t="n">
         <v>2020</v>
       </c>
       <c r="D82" t="n">
-        <v>420</v>
+        <v>201</v>
       </c>
       <c r="E82" t="n">
-        <v>340</v>
+        <v>194</v>
       </c>
       <c r="F82" t="n">
-        <v>338</v>
+        <v>155</v>
       </c>
       <c r="G82" t="n">
-        <v>337</v>
+        <v>187</v>
       </c>
       <c r="H82" t="n">
-        <v>335</v>
+        <v>173</v>
       </c>
       <c r="I82" t="n">
-        <v>327</v>
+        <v>191</v>
       </c>
       <c r="J82" t="n">
-        <v>341.8</v>
+        <v>183.2</v>
       </c>
       <c r="K82" t="n">
-        <v>4.5</v>
+        <v>14.4</v>
       </c>
       <c r="L82" t="n">
         <v>1.96</v>
       </c>
       <c r="M82" t="n">
-        <v>3.9</v>
+        <v>12.6</v>
       </c>
       <c r="N82" t="n">
-        <v>337.9</v>
+        <v>170.6000000000001</v>
       </c>
       <c r="O82" t="n">
-        <v>345.7</v>
+        <v>195.8</v>
       </c>
       <c r="P82" t="n">
-        <v>78.2</v>
+        <v>17.8</v>
       </c>
       <c r="Q82" t="n">
-        <v>3.9</v>
+        <v>12.6</v>
       </c>
       <c r="R82" t="n">
-        <v>22.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S82" t="n">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>341.8 (±3.9)</t>
+          <t>183.2 (±12.6)</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>78.2 (±3.9)</t>
+          <t>17.8 (±12.6)</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>22.9% (±1.4%)</t>
+          <t>9.7% (±7.0%)</t>
         </is>
       </c>
       <c r="W82" t="n">
-        <v>16828</v>
+        <v>8709</v>
       </c>
       <c r="X82" t="n">
-        <v>464.7</v>
+        <v>204.4</v>
       </c>
       <c r="Y82" t="n">
-        <v>23.2</v>
+        <v>144.7</v>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>464.7(±23.2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Vidin</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D83" t="n">
-        <v>188</v>
-      </c>
-      <c r="E83" t="n">
-        <v>196</v>
-      </c>
-      <c r="F83" t="n">
-        <v>175</v>
-      </c>
-      <c r="G83" t="n">
-        <v>149</v>
-      </c>
-      <c r="H83" t="n">
-        <v>138</v>
-      </c>
-      <c r="I83" t="n">
-        <v>143</v>
-      </c>
-      <c r="J83" t="n">
-        <v>163.4</v>
-      </c>
-      <c r="K83" t="n">
-        <v>22</v>
-      </c>
-      <c r="L83" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M83" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="N83" t="n">
-        <v>144.1</v>
-      </c>
-      <c r="O83" t="n">
-        <v>182.7</v>
-      </c>
-      <c r="P83" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="R83" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="S83" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>163.4 (±19.3)</t>
-        </is>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>24.6 (±19.3)</t>
-        </is>
-      </c>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t>15.1% (±12.2%)</t>
-        </is>
-      </c>
-      <c r="W83" t="n">
-        <v>6868</v>
-      </c>
-      <c r="X83" t="n">
-        <v>358.2</v>
-      </c>
-      <c r="Y83" t="n">
-        <v>281</v>
-      </c>
-      <c r="Z83" t="inlineStr">
-        <is>
-          <t>358.2(±281.0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Vratsa</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D84" t="n">
-        <v>312</v>
-      </c>
-      <c r="E84" t="n">
-        <v>302</v>
-      </c>
-      <c r="F84" t="n">
-        <v>269</v>
-      </c>
-      <c r="G84" t="n">
-        <v>289</v>
-      </c>
-      <c r="H84" t="n">
-        <v>255</v>
-      </c>
-      <c r="I84" t="n">
-        <v>253</v>
-      </c>
-      <c r="J84" t="n">
-        <v>279.2</v>
-      </c>
-      <c r="K84" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="L84" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M84" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="N84" t="n">
-        <v>262.4</v>
-      </c>
-      <c r="O84" t="n">
-        <v>296.0000000000001</v>
-      </c>
-      <c r="P84" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="R84" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="S84" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>279.2 (±16.8)</t>
-        </is>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>32.8 (±16.8)</t>
-        </is>
-      </c>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>11.7% (±6.3%)</t>
-        </is>
-      </c>
-      <c r="W84" t="n">
-        <v>11551</v>
-      </c>
-      <c r="X84" t="n">
-        <v>284</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>145.4</v>
-      </c>
-      <c r="Z84" t="inlineStr">
-        <is>
-          <t>284.0(±145.4)</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Yambol</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D85" t="n">
-        <v>201</v>
-      </c>
-      <c r="E85" t="n">
-        <v>194</v>
-      </c>
-      <c r="F85" t="n">
-        <v>155</v>
-      </c>
-      <c r="G85" t="n">
-        <v>187</v>
-      </c>
-      <c r="H85" t="n">
-        <v>173</v>
-      </c>
-      <c r="I85" t="n">
-        <v>191</v>
-      </c>
-      <c r="J85" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="K85" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="L85" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M85" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="N85" t="n">
-        <v>170.6000000000001</v>
-      </c>
-      <c r="O85" t="n">
-        <v>195.8</v>
-      </c>
-      <c r="P85" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="R85" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="S85" t="n">
-        <v>7</v>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>183.2 (±12.6)</t>
-        </is>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>17.8 (±12.6)</t>
-        </is>
-      </c>
-      <c r="V85" t="inlineStr">
-        <is>
-          <t>9.7% (±7.0%)</t>
-        </is>
-      </c>
-      <c r="W85" t="n">
-        <v>8915</v>
-      </c>
-      <c r="X85" t="n">
-        <v>199.7</v>
-      </c>
-      <c r="Y85" t="n">
-        <v>141.3</v>
-      </c>
-      <c r="Z85" t="inlineStr">
-        <is>
-          <t>199.7(±141.3)</t>
+          <t>204.4(±144.7)</t>
         </is>
       </c>
     </row>
